--- a/lineas_base/FRSIAAATR/LB_Planificacion/FRSIAAATR_C.xlsx
+++ b/lineas_base/FRSIAAATR/LB_Planificacion/FRSIAAATR_C.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antony\Desktop\Repositorio\FaceSolutions\desarrollo\FRSIAAATR\Gestión\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD00310-EA5E-4A89-8E95-CAC125A87961}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de proyecto y Gantt" sheetId="1" r:id="rId1"/>
     <sheet name="Línea base de costo" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,99 +30,464 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="198">
   <si>
     <t>Nombre del proyecto</t>
   </si>
   <si>
+    <t>Sistema de reconocimiento facial para la identificación de postulantes en el acceso de resultados del examen de admisión de UNMSM.</t>
+  </si>
+  <si>
     <t>Gerente del proyecto</t>
   </si>
   <si>
+    <t>Wong Portillo, Lenis Rossi</t>
+  </si>
+  <si>
+    <t>Jefe del Proyecto</t>
+  </si>
+  <si>
+    <t>Almonacid Paripancca, Antony Brayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente </t>
+  </si>
+  <si>
+    <t>Universidad Nacional Mayor de San Marcos</t>
+  </si>
+  <si>
     <t>Fecha de inicio</t>
   </si>
   <si>
     <t>Fecha final</t>
   </si>
   <si>
+    <t>Avance general</t>
+  </si>
+  <si>
     <t>Tareas</t>
   </si>
   <si>
     <t>Responsable</t>
   </si>
   <si>
+    <t>Colaborador(es)</t>
+  </si>
+  <si>
+    <t>Artefacto</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Github</t>
+  </si>
+  <si>
     <t>Días</t>
   </si>
   <si>
     <t>Estado</t>
   </si>
   <si>
+    <t>Porcentaje de Avance</t>
+  </si>
+  <si>
+    <t>Acta de Constitución de Proyecto</t>
+  </si>
+  <si>
+    <t>Garcia Martinez, Christian Arturo</t>
+  </si>
+  <si>
+    <t>Project Chapter</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/67b6140b13261ed230e9d28dd5cdad37d1fc653e</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Estudio de Factibilidad</t>
+  </si>
+  <si>
+    <t>Martinez Garcia, Christian Arturo</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Realizar el plan de gestión de alcance.</t>
+  </si>
+  <si>
+    <t>Montalvo Garcia, Antony Abel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Montalvo Garcia, Antony Abel                   Garcia Martinez, Christian Arturo        </t>
+  </si>
+  <si>
+    <t>Documento de Plan de Alcance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montalvo Garcia, Antony Abel    </t>
+  </si>
+  <si>
+    <t>Estimación de costos</t>
+  </si>
+  <si>
+    <t>Se estimo el costo aproximado que conlleva la ejecución del proyecto propuesto</t>
+  </si>
+  <si>
+    <t>Aprobación y revisión de documento</t>
+  </si>
+  <si>
+    <t>Revisión de estructura de documento</t>
+  </si>
+  <si>
+    <t>Almonacid Paripancca Antony Brayan</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Documento de Negocio</t>
+  </si>
+  <si>
+    <t>Montalvo Garcia, Antony Abel         Pernia Meza, Iver Elvis                         Tovar Taboada, Ricardo Manuel</t>
+  </si>
+  <si>
+    <t>Diagrama de Negocio: Registrar Inscripción de postulantes</t>
+  </si>
+  <si>
+    <t>Tovar Taboada,Ricardo Manuel</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/09f0706f50c272b66489b29e8a464a34837828e3</t>
+  </si>
+  <si>
+    <t>Diagrama de Negocio:  Iniciar sesión mediante reconocimiento facial</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/3b69f02f877675e57ae6cfe67048e6a59a4a3d89</t>
+  </si>
+  <si>
+    <t>Diagrama de Negocio:  Tramite de constancia de ingreso digital</t>
+  </si>
+  <si>
+    <t>Pernia Meza Iver</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/10e7e17bd82cfaf2738317c8593a56b97cfd9154</t>
+  </si>
+  <si>
+    <t>Definir los requerimientos funcionales del sistema.</t>
+  </si>
+  <si>
+    <t>Analisis de requerimientos asociados al sistema propuesto, durante coordinación grupal usando la plataforma meet.</t>
+  </si>
+  <si>
+    <t>Documento de especificación de requisitos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Almonacid Paripancca, Antony                     Garcia Martinez, Christian Arturo      Montalvo Garcia, Antony Abel</t>
+  </si>
+  <si>
+    <t>Documento de Requisitos</t>
+  </si>
+  <si>
+    <t>Especificación de requisitos funcionales y no funcionales</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/6cbba9bcac6b7123eaaff98a3e3457dd6ba701b8</t>
+  </si>
+  <si>
+    <t>Perspectiva, Funcionalidades, Características de los usuarios, Suposiciones o dependencias, Requisitos de las interfaces.</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/3419ac3e14ed8cdbed1cbe9a64d5742a40594c6e</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/06c891c4a882c9e03ef72a56134e3bff800047d2</t>
+  </si>
+  <si>
+    <t>Realizar la EDT</t>
+  </si>
+  <si>
+    <t>Unocc Sihuinta, Roberto Carlos</t>
+  </si>
+  <si>
+    <t>Estructura de Desglose de Trabajo</t>
+  </si>
+  <si>
+    <t>Identificar los paquetes de trabajo.</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/8f0ec13380b96dbff2cf0f44e517515e6d8e935b</t>
+  </si>
+  <si>
+    <t>Realizar el diagrama  de la EDT</t>
+  </si>
+  <si>
+    <t>Realizar el cronograma</t>
+  </si>
+  <si>
+    <t>Cronograma de Proyecto</t>
+  </si>
+  <si>
+    <t>Desarrollo del Cronograma</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/b7f87017c045c76f3ed7353bf35a7680607f9adf</t>
+  </si>
+  <si>
+    <t>Realizar diagrama de Gant</t>
+  </si>
+  <si>
+    <t>Modificación del cronograma,agregación de la columna %</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/0eba4803879a0c3e8b0f264b36822f5e8100cc76</t>
+  </si>
+  <si>
+    <t>Documento de la arquitectura del sistema.</t>
+  </si>
+  <si>
+    <t>Pernia Meza, Iver Elvis</t>
+  </si>
+  <si>
+    <t>Almonacid Paripancca, Antony Brayan    Garcia Martinez, Christian Arturo                Pernia Meza, Iver Elvis                                  Tovar Taboada, Ricardo Manuel            Unocc Sihuinta, Roberto Carlos</t>
+  </si>
+  <si>
+    <t>Documento de Arquitectura</t>
+  </si>
+  <si>
+    <t>Especificación de Casos de Uso</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/496254e20f60289a74896b8746a0a151c3b52e08</t>
+  </si>
+  <si>
+    <t>Creación de Vista de Componentes</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/7487155a69781c899791a7971770135c53e5b231</t>
+  </si>
+  <si>
+    <t>Vista Modular</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/86044152de2bf759809a8642a3d219493c868c62</t>
+  </si>
+  <si>
+    <t>Vista de Despliegue</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/68f97b9af11e5ca83a29e69d1b744d46364a94c3</t>
+  </si>
+  <si>
+    <t>Vista Funcional</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/21a0f1b4203509d951961f335dd3e256b72283d8</t>
+  </si>
+  <si>
+    <t>Vista de Integración</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/2b6e80cbba492de6daffe024b369ad78d1dbeecd</t>
+  </si>
+  <si>
+    <t>Documento de limitaciones del sistema</t>
+  </si>
+  <si>
+    <t>Documento de Limitaciones de Sistema</t>
+  </si>
+  <si>
+    <t>Introducción, alcance y definicion de limitaciones del sistema.</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/139f3999ea34768b8b5a559a6a758b1920448276</t>
+  </si>
+  <si>
+    <t>15/7/2020</t>
+  </si>
+  <si>
+    <t>17/7/2020</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Diseño de mockups de interfaces de ususario</t>
+  </si>
+  <si>
+    <t>Documento de Lineamiento de Requisitos</t>
+  </si>
+  <si>
+    <t>Mockup: Registro de usuario (Administrador) y Login (Administrador)</t>
+  </si>
+  <si>
+    <t>Almonacid Paripancca Antony</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/78ce47e701642e0ad4e492b81dded82e798cba7d</t>
+  </si>
+  <si>
+    <t>Mockup del proyecto:Registro de usuario</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/ad7f55d9a422fb2aa9b14cacbfa45b298cf5badf</t>
+  </si>
+  <si>
+    <t>Creación de mockups de interfaces: Menú de administrador, Tabla de solicitudes.</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/ab46808c1f08b09c14a17e2753763064df053c10</t>
+  </si>
+  <si>
+    <t>Mockup: Registro de usuario (Postulante) y Login (Postulante)</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/63b4f4ec6a241e3d54eddca766c093e2788ef603</t>
+  </si>
+  <si>
+    <t>Mockup del proyecto: Formulario con la información del postulante y Inicio de sesión postulante</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/d8bade604e769be3eae42f4f9849979d3cc8e238</t>
+  </si>
+  <si>
+    <t>Diseño de la base de datos.</t>
+  </si>
+  <si>
+    <t>Montalvo García, Antony Abel</t>
+  </si>
+  <si>
+    <t>Documento de Diseño</t>
+  </si>
+  <si>
+    <t>Introducción, definición de la arquitectura del sistema, diseño del modelado de la base de datos y diccionario.​</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/db3c5083537152f1cea34193bc030b8cb1eee24f</t>
+  </si>
+  <si>
+    <t>Analizar un eficiente algoritmo de reconocimiento facial.</t>
+  </si>
+  <si>
+    <t>Garcia Martinez, Christian Arturo Montalvo Garcia, Antony Abel                     Unocc Sihuinta, Roberto Carlos</t>
+  </si>
+  <si>
+    <t>Busqueda de diversos algoritmo, que permita realizar el reconocimiento facial</t>
+  </si>
+  <si>
+    <t>Garcia Martinez, Christian Arturo;Montalvo Garcia,Antony; Unocc Sihuinta,Roberto Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escoger un algoritmo de los diversos algoritmos candidatos. </t>
+  </si>
+  <si>
+    <t>HITO 1</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Desarrollo del backend</t>
+  </si>
+  <si>
+    <t>En proceso</t>
+  </si>
+  <si>
+    <t>Implementar algoritmo de reconocimiento facial.</t>
+  </si>
+  <si>
+    <t>Montalvo Garcia, Antony Abel Unocc Sihuinta, Roberto Carlos</t>
+  </si>
+  <si>
+    <t>Carga de modelos y demo del agoritmo de reconocimiento facial</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/66808490ef86e7330509ef13545ca72ee72cdcc5</t>
+  </si>
+  <si>
+    <t>La implementación, definiendo los parámetros, bases y envio de información.​</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/c515f00ea3c81f0f9d63acf869ec1ef002ebfc3c</t>
+  </si>
+  <si>
+    <r>
+      <t>Desarrollo backend del módulo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> del postulante</t>
+    </r>
+  </si>
+  <si>
+    <t>Integración del Algoritmo de reconocimineto facial al módulo de postulante.</t>
+  </si>
+  <si>
+    <t>Creación de la estructura del sistema y conexión con una base de datos en la nube, endpoints para el registro, inicio de sesión .​</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/980fdacb6190b6d62d7c1384c9fef4c4a54dfaa2</t>
+  </si>
+  <si>
+    <t>Desarrollo backend del módulo del administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almonacid Paripancca, Antony Brayan Garcia Martinez, Christian Arturo </t>
+  </si>
+  <si>
+    <t>Creación de endpoint para la consulta de todas las solicitudes realizadas</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/d75d2b33ec65d47a3b0c8cbd27c8f40e0cc66d24</t>
+  </si>
+  <si>
+    <t>Creación de endpoint para filtrar solicitudes</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/45ea43d342616094222b7375e1a657a210a49fdf</t>
+  </si>
+  <si>
+    <t>Generación de la constancia de ingreso digital</t>
+  </si>
+  <si>
     <t>Sin empezar</t>
   </si>
   <si>
-    <t>Completado</t>
-  </si>
-  <si>
-    <t>Avance general</t>
-  </si>
-  <si>
-    <t>Línea base de costo</t>
-  </si>
-  <si>
-    <t>Item/Tarea</t>
-  </si>
-  <si>
-    <t>% Cumplimiento</t>
-  </si>
-  <si>
-    <t>Costo inicial</t>
-  </si>
-  <si>
-    <t>Costo</t>
-  </si>
-  <si>
-    <t>Costo actual</t>
-  </si>
-  <si>
-    <t>% Presupuesto utlizado</t>
-  </si>
-  <si>
-    <t>Sistema de reconocimiento facial para la identificación de postulantes en el acceso de resultados del examen de admisión de UNMSM.</t>
-  </si>
-  <si>
-    <t>Jefe del Proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cliente </t>
-  </si>
-  <si>
-    <t>Wong Portillo, Lenis Rossi</t>
-  </si>
-  <si>
-    <t>Almonacid Paripancca, Antony Brayan</t>
-  </si>
-  <si>
-    <t>Universidad Nacional Mayor de San Marcos</t>
-  </si>
-  <si>
-    <t>Acta de Constitución de Proyecto</t>
-  </si>
-  <si>
-    <t>Definir los requerimientos funcionales del sistema.</t>
-  </si>
-  <si>
-    <t>Documento de especificación de requisitos.</t>
-  </si>
-  <si>
-    <t>Diseñar mockups de las interfaces de usuario.</t>
-  </si>
-  <si>
-    <t>Analizar un eficiente algoritmo de reconocimiento facial.</t>
-  </si>
-  <si>
-    <t>Implementar algoritmo de reconocimiento facial.</t>
+    <t>Desarrollo del frontend</t>
+  </si>
+  <si>
+    <t>Tovar Taboada, Ricardo Manuel</t>
   </si>
   <si>
     <t>Interfaz de usuario del módulo para el postulante</t>
+  </si>
+  <si>
+    <t>Montalvo Garcia, Antony Abel Unocc Sihuinta, Roberto Carlos Tovar Taboada, Ricardo Manuel</t>
+  </si>
+  <si>
+    <t>Estructura para reutilizar partes específicas de las vistas, conexión del backend con las vistas</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/d613e02826521c287096699de085a57d223c62ea</t>
+  </si>
+  <si>
+    <t>Creacion de interfaz:Login del postulante</t>
+  </si>
+  <si>
+    <t>Unocc Sihuinta, Tovar Taboada</t>
+  </si>
+  <si>
+    <t>Creacion de interfaz: Registro de postulante</t>
   </si>
   <si>
     <r>
@@ -138,24 +504,34 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Desarrollo backend del módulo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> del postulante</t>
-    </r>
-  </si>
-  <si>
-    <t>Desarrollo backend del módulo del administrador</t>
-  </si>
-  <si>
-    <t>Generación de la constancia de ingreso digital</t>
+    <t>Almonacid Paripancca, Antony Brayan Garcia Martinez, Christian Arturo Pernia Meza, Iver Elvis</t>
+  </si>
+  <si>
+    <t>Creación de interfaz: Listado de Postulantes y Revisión de Requisitos (fotos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almonacid Paripancca, Antony Brayan </t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/c99bf834b6ad40b6bc88b5e02c4ae0954ca03869</t>
+  </si>
+  <si>
+    <t>Creación de interfaces: Listado de solicitudes y Revisión de requisitos de solicitud (docs).</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/0f4be72174e2147b3683bed9c386f8df9640b2c5</t>
+  </si>
+  <si>
+    <t>Creación de interfaces: Vista detallada de los datos del alumno</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pernia Meza, Iver Elvis</t>
+  </si>
+  <si>
+    <t>https://github.com/antonyMontalvo/FaceSolutions/commit/2712af39f14f962243fe148c66223bbe44a7916c</t>
+  </si>
+  <si>
+    <t>HITO 2</t>
   </si>
   <si>
     <t>Integración de servicios del módulo del postulante con el algoritmo de reconocimiento facial</t>
@@ -178,24 +554,81 @@
     <t xml:space="preserve">Testing </t>
   </si>
   <si>
+    <t>Realizar Pruebas de ambiente</t>
+  </si>
+  <si>
+    <t>Relizar pruebas de funcionanalidad</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de calidad</t>
+  </si>
+  <si>
+    <t>Correción de errores</t>
+  </si>
+  <si>
+    <t>Identificación de errores</t>
+  </si>
+  <si>
+    <t>Análisis de soluciones</t>
+  </si>
+  <si>
+    <t>Levantamiento de errores</t>
+  </si>
+  <si>
     <t>Despliegue del sistema</t>
   </si>
   <si>
+    <t>Desplegar el sistema a un servidor</t>
+  </si>
+  <si>
+    <t>Realizar pruebas del sistema desplegado</t>
+  </si>
+  <si>
+    <t>Manuales</t>
+  </si>
+  <si>
+    <t>Manual técnico</t>
+  </si>
+  <si>
     <t>Manual de usuario</t>
   </si>
   <si>
     <t>Documento de cierre de proyecto</t>
   </si>
   <si>
-    <t>HITO 1</t>
-  </si>
-  <si>
-    <t>HITO 2</t>
+    <t>Realizar acta de conformidad</t>
+  </si>
+  <si>
+    <t>Firma de aprobación del Cliente</t>
   </si>
   <si>
     <t>HITO 3</t>
   </si>
   <si>
+    <t>CRONOGRAMA DE ACTIVIDADES DEL PROYECTO: Sistema de reconocimiento facial para la identificación de postulantes en el acceso de resultados del examen de admisión de UNMSM</t>
+  </si>
+  <si>
+    <t>Línea base de costo</t>
+  </si>
+  <si>
+    <t>Item/Tarea</t>
+  </si>
+  <si>
+    <t>% Cumplimiento</t>
+  </si>
+  <si>
+    <t>Costo inicial</t>
+  </si>
+  <si>
+    <t>Costo</t>
+  </si>
+  <si>
+    <t>Costo actual</t>
+  </si>
+  <si>
+    <t>% Presupuesto utlizado</t>
+  </si>
+  <si>
     <t>Internet de 20Mbps - Telefonía fija (Claro)</t>
   </si>
   <si>
@@ -224,121 +657,16 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Montalvo Garcia, Antony Abel</t>
-  </si>
-  <si>
-    <t>Tovar Taboada, Ricardo Manuel</t>
-  </si>
-  <si>
-    <t>Pernia Meza, Iver Elvis</t>
-  </si>
-  <si>
-    <t>Garcia Martinez, Christian Arturo</t>
-  </si>
-  <si>
-    <t>CRONOGRAMA DE ACTIVIDADES DEL PROYECTO: Sistema de reconocimiento facial para la identificación de postulantes en el acceso de resultados del examen de admisión de UNMSM</t>
-  </si>
-  <si>
-    <t>Realizar el cronograma</t>
-  </si>
-  <si>
-    <t>Estudio de Factibilidad</t>
-  </si>
-  <si>
-    <t>Aprobación de la Solicitud</t>
-  </si>
-  <si>
-    <t>Diseño</t>
-  </si>
-  <si>
-    <t>Diseño de la base de datos.</t>
-  </si>
-  <si>
-    <t>Planificación</t>
-  </si>
-  <si>
-    <t>Realizar el plan de gestión de alcance.</t>
-  </si>
-  <si>
-    <t>Realizar la EDT</t>
-  </si>
-  <si>
-    <t>Estimación de costos</t>
-  </si>
-  <si>
-    <t>Desarrollo</t>
-  </si>
-  <si>
-    <t>Desarrollo del backend</t>
-  </si>
-  <si>
-    <t>Desarrollo del frontend</t>
-  </si>
-  <si>
-    <t>Realizar Pruebas de ambiente</t>
-  </si>
-  <si>
-    <t>Relizar pruebas de funcionanalidad</t>
-  </si>
-  <si>
-    <t>Realizar pruebas de calidad</t>
-  </si>
-  <si>
-    <t>Correción de errores</t>
-  </si>
-  <si>
-    <t>Identificación de errores</t>
-  </si>
-  <si>
-    <t>Análisis de soluciones</t>
-  </si>
-  <si>
-    <t>Levantamiento de errores</t>
-  </si>
-  <si>
-    <t>Desplegar el sistema a un servidor</t>
-  </si>
-  <si>
-    <t>Realizar pruebas del sistema desplegado</t>
-  </si>
-  <si>
-    <t>Manuales</t>
-  </si>
-  <si>
-    <t>Manual técnico</t>
-  </si>
-  <si>
-    <t>Firma de aprobación del Cliente</t>
-  </si>
-  <si>
-    <t>Realizar acta de conformidad</t>
-  </si>
-  <si>
-    <t>Unocc Sihuinta, Roberto Carlos</t>
-  </si>
-  <si>
-    <t>Porcentaje de Avance</t>
-  </si>
-  <si>
-    <t>Documento de la arquitectura del sistema.</t>
-  </si>
-  <si>
-    <t>Documento de limitaciones del sistema</t>
-  </si>
-  <si>
-    <t>En proceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;S/&quot;\ #,##0.00;[Red]&quot;S/&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;S/&quot;\ #,##0.00;[Red]&quot;S/&quot;\ \-#,##0.00"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -448,6 +776,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -493,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -536,15 +880,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -565,32 +1116,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -601,9 +1140,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -648,9 +1184,283 @@
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,15 +1470,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,7 +1494,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -720,7 +1529,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan de proyecto y Gantt'!$C$11</c:f>
+              <c:f>'Plan de proyecto y Gantt'!$H$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -744,13 +1553,13 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Plan de proyecto y Gantt'!$A$12:$A$59</c15:sqref>
+                    <c15:sqref>'Plan de proyecto y Gantt'!$A$12:$A$84</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Plan de proyecto y Gantt'!$A$12:$A$33,'Plan de proyecto y Gantt'!$A$35:$A$59)</c:f>
+              <c:f>('Plan de proyecto y Gantt'!$A$12:$A$33,'Plan de proyecto y Gantt'!$A$35:$A$84)</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>Acta de Constitución de Proyecto</c:v>
                 </c:pt>
@@ -758,138 +1567,141 @@
                   <c:v>Estudio de Factibilidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aprobación de la Solicitud</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>Realizar el plan de gestión de alcance.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estimación de costos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aprobación y revisión de documento</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Planificación</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Documento de Negocio</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Definir los requerimientos funcionales del sistema.</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>Documento de especificación de requisitos.</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Realizar el plan de gestión de alcance.</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>Realizar la EDT</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>Realizar el cronograma</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Estimación de costos</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>Documento de la arquitectura del sistema.</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>Documento de limitaciones del sistema</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
+                  <c:v>Diseño de mockups de interfaces de ususario</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Diseño de la base de datos.</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Diseñar mockups de las interfaces de usuario.</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="32">
                   <c:v>Analizar un eficiente algoritmo de reconocimiento facial.</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="34">
                   <c:v>HITO 1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="35">
                   <c:v>Desarrollo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="36">
                   <c:v>Desarrollo del backend</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
                   <c:v>Implementar algoritmo de reconocimiento facial.</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>Desarrollo backend del módulo del postulante</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>Desarrollo backend del módulo del administrador</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
                   <c:v>Generación de la constancia de ingreso digital</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="44">
                   <c:v>Desarrollo del frontend</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="45">
                   <c:v>Interfaz de usuario del módulo para el postulante</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="48">
                   <c:v>Interfaz de usuario del módulo para el administrador</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="51">
                   <c:v>HITO 2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="52">
                   <c:v>Integración de servicios del módulo del postulante con el algoritmo de reconocimiento facial</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="53">
                   <c:v>Integración de servicios del módulo del administrador</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="54">
                   <c:v>Testing </c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="55">
                   <c:v>Realizar Pruebas de ambiente</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="56">
                   <c:v>Relizar pruebas de funcionanalidad</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="57">
                   <c:v>Realizar pruebas de calidad</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="58">
                   <c:v>Correción de errores</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="59">
                   <c:v>Identificación de errores</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="60">
                   <c:v>Análisis de soluciones</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="61">
                   <c:v>Levantamiento de errores</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="62">
                   <c:v>Despliegue del sistema</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="63">
                   <c:v>Desplegar el sistema a un servidor</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="64">
                   <c:v>Realizar pruebas del sistema desplegado</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="65">
                   <c:v>Manuales</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="66">
                   <c:v>Manual técnico</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="67">
                   <c:v>Manual de usuario</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
                   <c:v>Documento de cierre de proyecto</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="69">
                   <c:v>Realizar acta de conformidad</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="70">
                   <c:v>Firma de aprobación del Cliente</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="71">
                   <c:v>HITO 3</c:v>
                 </c:pt>
               </c:strCache>
@@ -900,14 +1712,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Plan de proyecto y Gantt'!$C$12:$C$59</c15:sqref>
+                    <c15:sqref>'Plan de proyecto y Gantt'!$H$12:$H$84</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Plan de proyecto y Gantt'!$C$12:$C$33,'Plan de proyecto y Gantt'!$C$35:$C$59)</c:f>
+              <c:f>('Plan de proyecto y Gantt'!$H$12:$H$33,'Plan de proyecto y Gantt'!$H$35:$H$84)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>43994</c:v>
                 </c:pt>
@@ -915,135 +1727,201 @@
                   <c:v>43994</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>44006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>44002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
                   <c:v>44008</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
                   <c:v>44008</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>44008</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>44010</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>44012</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44010</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44018</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>44019</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>44022</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="20">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43837</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43868</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>44021</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>44021</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>44021</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="32">
                   <c:v>44024</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="33">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>44029</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="36">
                   <c:v>44029</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
                   <c:v>44029</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="38">
                   <c:v>44029</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="39">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>44036</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="41">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>44039</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="44">
                   <c:v>44029</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="45">
                   <c:v>44029</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="46">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44030</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>44032</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="49">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44032</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>44043</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="53">
                   <c:v>44050</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="54">
                   <c:v>44057</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="55">
                   <c:v>44057</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="56">
                   <c:v>44057</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="57">
                   <c:v>44058</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="58">
                   <c:v>44060</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="59">
                   <c:v>44060</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="60">
                   <c:v>44060</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="61">
                   <c:v>44060</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="62">
                   <c:v>44064</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="63">
                   <c:v>44064</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="64">
                   <c:v>44065</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="65">
                   <c:v>44066</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="66">
                   <c:v>44066</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="67">
                   <c:v>44066</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
                   <c:v>44067</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="69">
                   <c:v>44067</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="70">
                   <c:v>44070</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC27-42F0-95D7-3BD26C201260}"/>
             </c:ext>
@@ -1054,7 +1932,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan de proyecto y Gantt'!$E$11</c:f>
+              <c:f>'Plan de proyecto y Gantt'!$J$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1077,7 +1955,7 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1087,7 +1965,7 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1097,7 +1975,7 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1107,7 +1985,7 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1117,7 +1995,7 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1127,7 +2005,7 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1137,7 +2015,7 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1147,7 +2025,7 @@
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1157,7 +2035,7 @@
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1167,7 +2045,7 @@
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1177,7 +2055,7 @@
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1187,7 +2065,7 @@
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1197,7 +2075,7 @@
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1207,7 +2085,7 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1217,7 +2095,7 @@
             <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1227,7 +2105,7 @@
             <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1237,7 +2115,7 @@
             <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1247,7 +2125,7 @@
             <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1257,7 +2135,7 @@
             <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1267,7 +2145,7 @@
             <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1277,149 +2155,9 @@
             <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="38"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="39"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="40"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="41"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="42"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="43"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="44"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="45"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="46"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="47"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="48"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="49"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="50"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="51"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1427,9 +2165,9 @@
             <c:idx val="52"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000017-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1437,9 +2175,9 @@
             <c:idx val="53"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000018-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1447,9 +2185,9 @@
             <c:idx val="54"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000019-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1457,9 +2195,9 @@
             <c:idx val="55"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1467,9 +2205,9 @@
             <c:idx val="56"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1477,9 +2215,9 @@
             <c:idx val="57"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1487,9 +2225,9 @@
             <c:idx val="58"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002A-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1497,9 +2235,9 @@
             <c:idx val="59"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1507,9 +2245,9 @@
             <c:idx val="60"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002C-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1517,9 +2255,9 @@
             <c:idx val="61"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000020-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1527,9 +2265,9 @@
             <c:idx val="62"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002E-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000021-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1537,9 +2275,9 @@
             <c:idx val="63"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000022-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1547,9 +2285,9 @@
             <c:idx val="64"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000030-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000023-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1557,9 +2295,9 @@
             <c:idx val="65"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000024-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1567,24 +2305,159 @@
             <c:idx val="66"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="67"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000026-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="68"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="69"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000028-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="70"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="71"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002A-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="72"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="73"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002C-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="74"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="75"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002E-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="76"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="77"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000030-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="78"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-BC27-42F0-95D7-3BD26C201260}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="79"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000032-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="80"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
           </c:dPt>
           <c:cat>
             <c:strRef>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Plan de proyecto y Gantt'!$A$12:$A$59</c15:sqref>
+                    <c15:sqref>'Plan de proyecto y Gantt'!$A$12:$A$84</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Plan de proyecto y Gantt'!$A$12:$A$33,'Plan de proyecto y Gantt'!$A$35:$A$59)</c:f>
+              <c:f>('Plan de proyecto y Gantt'!$A$12:$A$33,'Plan de proyecto y Gantt'!$A$35:$A$84)</c:f>
               <c:strCache>
-                <c:ptCount val="47"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>Acta de Constitución de Proyecto</c:v>
                 </c:pt>
@@ -1592,138 +2465,141 @@
                   <c:v>Estudio de Factibilidad</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Aprobación de la Solicitud</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                  <c:v>Realizar el plan de gestión de alcance.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estimación de costos</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Aprobación y revisión de documento</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Planificación</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>Documento de Negocio</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>Definir los requerimientos funcionales del sistema.</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="11">
                   <c:v>Documento de especificación de requisitos.</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>Realizar el plan de gestión de alcance.</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>Realizar la EDT</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="16">
                   <c:v>Realizar el cronograma</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>Estimación de costos</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="19">
                   <c:v>Documento de la arquitectura del sistema.</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="24">
                   <c:v>Documento de limitaciones del sistema</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="25">
                   <c:v>Diseño</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="26">
+                  <c:v>Diseño de mockups de interfaces de ususario</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>Diseño de la base de datos.</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>Diseñar mockups de las interfaces de usuario.</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="32">
                   <c:v>Analizar un eficiente algoritmo de reconocimiento facial.</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="34">
                   <c:v>HITO 1</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="35">
                   <c:v>Desarrollo</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="36">
                   <c:v>Desarrollo del backend</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="37">
                   <c:v>Implementar algoritmo de reconocimiento facial.</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="39">
                   <c:v>Desarrollo backend del módulo del postulante</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>Desarrollo backend del módulo del administrador</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="43">
                   <c:v>Generación de la constancia de ingreso digital</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="44">
                   <c:v>Desarrollo del frontend</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="45">
                   <c:v>Interfaz de usuario del módulo para el postulante</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="48">
                   <c:v>Interfaz de usuario del módulo para el administrador</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="51">
                   <c:v>HITO 2</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="52">
                   <c:v>Integración de servicios del módulo del postulante con el algoritmo de reconocimiento facial</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="53">
                   <c:v>Integración de servicios del módulo del administrador</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="54">
                   <c:v>Testing </c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="55">
                   <c:v>Realizar Pruebas de ambiente</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="56">
                   <c:v>Relizar pruebas de funcionanalidad</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="57">
                   <c:v>Realizar pruebas de calidad</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="58">
                   <c:v>Correción de errores</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="59">
                   <c:v>Identificación de errores</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="60">
                   <c:v>Análisis de soluciones</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="61">
                   <c:v>Levantamiento de errores</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="62">
                   <c:v>Despliegue del sistema</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="63">
                   <c:v>Desplegar el sistema a un servidor</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="64">
                   <c:v>Realizar pruebas del sistema desplegado</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="65">
                   <c:v>Manuales</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="66">
                   <c:v>Manual técnico</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="67">
                   <c:v>Manual de usuario</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
                   <c:v>Documento de cierre de proyecto</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="69">
                   <c:v>Realizar acta de conformidad</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="70">
                   <c:v>Firma de aprobación del Cliente</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="71">
                   <c:v>HITO 3</c:v>
                 </c:pt>
               </c:strCache>
@@ -1734,14 +2610,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Plan de proyecto y Gantt'!$E$12:$E$59</c15:sqref>
+                    <c15:sqref>'Plan de proyecto y Gantt'!$J$12:$J$84</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Plan de proyecto y Gantt'!$E$12:$E$33,'Plan de proyecto y Gantt'!$E$35:$E$59)</c:f>
+              <c:f>('Plan de proyecto y Gantt'!$J$12:$J$33,'Plan de proyecto y Gantt'!$J$35:$J$84)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="72"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1749,135 +2625,201 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>7</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="59">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="60">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="61">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="62">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="63">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="64">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="65">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="66">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="67">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="68">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="69">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="70">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000033-BC27-42F0-95D7-3BD26C201260}"/>
             </c:ext>
@@ -1893,11 +2835,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-642952912"/>
-        <c:axId val="-460415744"/>
+        <c:axId val="277669520"/>
+        <c:axId val="277667888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-642952912"/>
+        <c:axId val="277669520"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1940,7 +2882,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-460415744"/>
+        <c:crossAx val="277667888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +2890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-460415744"/>
+        <c:axId val="277667888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44078"/>
@@ -2001,7 +2943,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-642952912"/>
+        <c:crossAx val="277669520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -2600,15 +3542,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>166968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>564030</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2616,7 +3558,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,1269 +3900,3085 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="35.25" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="10.75" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="34" style="25" customWidth="1"/>
+    <col min="4" max="4" width="35.875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="51.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="35.875" style="25" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="25.75" customWidth="1"/>
+    <col min="14" max="14" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="18.75">
+    <row r="2" spans="1:22" ht="18.75">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.75">
+      <c r="B2" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="137"/>
+      <c r="K2" s="137"/>
+      <c r="L2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+    </row>
+    <row r="3" spans="1:22" ht="18.75">
       <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="49"/>
-    </row>
-    <row r="4" spans="1:9" ht="18.75">
+        <v>2</v>
+      </c>
+      <c r="B3" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+    </row>
+    <row r="4" spans="1:22" ht="18.75">
       <c r="A4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" ht="18.75">
+        <v>4</v>
+      </c>
+      <c r="B4" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+    </row>
+    <row r="5" spans="1:22" ht="18.75">
       <c r="A5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="50"/>
-    </row>
-    <row r="6" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="139"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="18.75">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+    </row>
+    <row r="7" spans="1:22" ht="18.75">
       <c r="A7" s="9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="4">
         <v>43994</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="18.75">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+    </row>
+    <row r="8" spans="1:22" ht="18.75">
       <c r="A8" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4">
         <v>44071</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.43</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+    </row>
+    <row r="11" spans="1:22" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+    </row>
+    <row r="12" spans="1:22" ht="49.5" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="27">
+        <v>43994</v>
+      </c>
+      <c r="I12" s="27">
+        <v>44008</v>
+      </c>
+      <c r="J12" s="26">
+        <f>I12-H12</f>
+        <v>14</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="39">
+        <f>AVERAGE(L13:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+    </row>
+    <row r="13" spans="1:22" ht="23.25" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="105"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="27">
+        <v>43994</v>
+      </c>
+      <c r="I13" s="27">
+        <v>44002</v>
+      </c>
+      <c r="J13" s="26">
+        <f>I13-H13</f>
+        <v>8</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="38">
+        <v>1</v>
+      </c>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+    </row>
+    <row r="14" spans="1:22" s="25" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A14" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="106"/>
+      <c r="E14" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="50">
+        <v>44006</v>
+      </c>
+      <c r="I14" s="50">
+        <v>44008</v>
+      </c>
+      <c r="J14" s="90">
+        <f>I14-H14</f>
+        <v>2</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="25" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="115"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="90" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="50">
+        <v>44007</v>
+      </c>
+      <c r="I15" s="50">
+        <v>44008</v>
+      </c>
+      <c r="J15" s="90">
+        <f>I15-H15</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="L15" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C16" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="106"/>
+      <c r="E16" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="27">
+        <v>44007</v>
+      </c>
+      <c r="I16" s="27">
+        <v>44008</v>
+      </c>
+      <c r="J16" s="26">
+        <v>1</v>
+      </c>
+      <c r="K16" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="25" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="107"/>
+      <c r="E17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="27">
+        <v>44002</v>
+      </c>
+      <c r="I17" s="27">
+        <v>44008</v>
+      </c>
+      <c r="J17" s="26">
+        <f>I17-H17</f>
         <v>6</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="K17" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19">
-        <v>43994</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="L17" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="26.25" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="98"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="27">
         <v>44008</v>
       </c>
-      <c r="E12" s="18">
-        <f t="shared" ref="E12:E27" si="0">D12-C12</f>
-        <v>14</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="44">
-        <f>AVERAGE(G13:G14)</f>
+      <c r="I18" s="27">
+        <v>44029</v>
+      </c>
+      <c r="J18" s="26">
+        <f>I18-H18</f>
+        <v>21</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="39">
+        <f>AVERAGE(L22:L37)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="23.25" customHeight="1">
-      <c r="A13" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="19">
-        <v>43994</v>
-      </c>
-      <c r="D13" s="19">
-        <v>44002</v>
-      </c>
-      <c r="E13" s="18">
-        <f t="shared" ref="E13" si="1">D13-C13</f>
-        <v>8</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="43">
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="25"/>
+    </row>
+    <row r="19" spans="1:22" s="25" customFormat="1" ht="36" customHeight="1">
+      <c r="A19" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="89" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="45">
+        <v>44008</v>
+      </c>
+      <c r="I19" s="45">
+        <v>44013</v>
+      </c>
+      <c r="J19" s="26">
+        <v>5</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L19" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A14" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="19">
-        <v>44002</v>
-      </c>
-      <c r="D14" s="19">
+    <row r="20" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="102"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="45">
         <v>44008</v>
       </c>
-      <c r="E14" s="18">
-        <f t="shared" ref="E14" si="2">D14-C14</f>
-        <v>6</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="43">
+      <c r="I20" s="45">
+        <v>44013</v>
+      </c>
+      <c r="J20" s="26">
+        <v>5</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L20" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19">
+    <row r="21" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
+      <c r="A21" s="103"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="H21" s="45">
         <v>44008</v>
       </c>
-      <c r="D15" s="19">
-        <v>44022</v>
-      </c>
-      <c r="E15" s="18">
-        <f t="shared" ref="E15" si="3">D15-C15</f>
-        <v>14</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="44">
-        <f>AVERAGE(G16:G23)</f>
+      <c r="I21" s="45">
+        <v>44013</v>
+      </c>
+      <c r="J21" s="44">
+        <f t="shared" ref="J21:J26" si="0">I21-H21</f>
+        <v>5</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A16" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="19">
+      <c r="N21" s="48"/>
+    </row>
+    <row r="22" spans="1:22" ht="29.25" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="26"/>
+      <c r="E22" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="27">
         <v>44008</v>
       </c>
-      <c r="D16" s="32">
+      <c r="I22" s="27">
         <v>44013</v>
       </c>
-      <c r="E16" s="18">
+      <c r="J22" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F16" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="43">
+      <c r="K22" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="27" customHeight="1">
-      <c r="A17" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="18" t="s">
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+    </row>
+    <row r="23" spans="1:22" s="25" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="116" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="19">
+      <c r="F23" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="27">
         <v>44008</v>
       </c>
-      <c r="D17" s="32">
+      <c r="I23" s="27">
         <v>44013</v>
       </c>
-      <c r="E17" s="18">
-        <f>D17-C17</f>
-        <v>5</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A18" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="19">
-        <v>44010</v>
-      </c>
-      <c r="D18" s="32">
-        <v>44013</v>
-      </c>
-      <c r="E18" s="18">
-        <f>D18-C18</f>
-        <v>3</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1">
-      <c r="A19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="19">
-        <v>44012</v>
-      </c>
-      <c r="D19" s="32">
-        <v>44013</v>
-      </c>
-      <c r="E19" s="18">
-        <f>D19-C19</f>
-        <v>1</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A20" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="32">
-        <v>44010</v>
-      </c>
-      <c r="D20" s="32">
-        <v>44013</v>
-      </c>
-      <c r="E20" s="18">
-        <f t="shared" ref="E20:E21" si="4">D20-C20</f>
-        <v>3</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="19">
-        <v>44018</v>
-      </c>
-      <c r="D21" s="19">
-        <v>44021</v>
-      </c>
-      <c r="E21" s="18">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="32">
-        <v>44019</v>
-      </c>
-      <c r="D22" s="32">
-        <v>44022</v>
-      </c>
-      <c r="E22" s="18">
-        <f>D22-C22</f>
-        <v>3</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="30" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A23" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="19">
-        <v>44022</v>
-      </c>
-      <c r="D23" s="19">
-        <v>44026</v>
-      </c>
-      <c r="E23" s="18">
-        <f>D23-C23</f>
-        <v>4</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="32">
-        <v>44021</v>
-      </c>
-      <c r="D24" s="19">
-        <v>44029</v>
-      </c>
-      <c r="E24" s="18">
-        <f t="shared" ref="E24" si="5">D24-C24</f>
-        <v>8</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="44">
-        <f>AVERAGE(G25:G27)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A25" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="32">
-        <v>44021</v>
-      </c>
-      <c r="D25" s="19">
-        <v>44024</v>
-      </c>
-      <c r="E25" s="18">
-        <f t="shared" ref="E25" si="6">D25-C25</f>
-        <v>3</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A26" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="32">
-        <v>44021</v>
-      </c>
-      <c r="D26" s="32">
-        <v>44022</v>
-      </c>
-      <c r="E26" s="18">
-        <f>D26-C26</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="19">
-        <v>44024</v>
-      </c>
-      <c r="D27" s="19">
-        <v>44029</v>
-      </c>
-      <c r="E27" s="18">
+      <c r="J23" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F27" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="43">
+      <c r="K23" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L23" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="30.75" customHeight="1">
-      <c r="A28" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="1:7" s="30" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A29" s="29" t="s">
+    <row r="24" spans="1:22" s="25" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A24" s="102"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="27">
+        <v>44008</v>
+      </c>
+      <c r="I24" s="27">
+        <v>44013</v>
+      </c>
+      <c r="J24" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="52.5" customHeight="1">
+      <c r="A25" s="102"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="84" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="73" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="52">
+        <v>44008</v>
+      </c>
+      <c r="I25" s="52">
+        <v>44013</v>
+      </c>
+      <c r="J25" s="91">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="K25" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="54">
+        <v>1</v>
+      </c>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+    </row>
+    <row r="26" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
+      <c r="A26" s="118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="109">
+        <v>44012</v>
+      </c>
+      <c r="I26" s="109">
+        <v>44013</v>
+      </c>
+      <c r="J26" s="112">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="104">
+        <v>1</v>
+      </c>
+      <c r="M26" s="67"/>
+      <c r="N26" s="48"/>
+    </row>
+    <row r="27" spans="1:22" ht="30" customHeight="1">
+      <c r="A27" s="119"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="110"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25"/>
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+    </row>
+    <row r="28" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="97" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="31"/>
-      <c r="C29" s="32">
+      <c r="H28" s="108">
+        <v>44010</v>
+      </c>
+      <c r="I28" s="109">
+        <v>44013</v>
+      </c>
+      <c r="J28" s="110">
+        <f>I28-H28</f>
+        <v>3</v>
+      </c>
+      <c r="K28" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="104">
+        <v>1</v>
+      </c>
+      <c r="N28" s="48"/>
+    </row>
+    <row r="29" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="102"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="97"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="104"/>
+      <c r="N29" s="48"/>
+    </row>
+    <row r="30" spans="1:22" ht="30" customHeight="1">
+      <c r="A30" s="103"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+    </row>
+    <row r="31" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="123" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="45">
+        <v>44019</v>
+      </c>
+      <c r="I31" s="45">
+        <v>44022</v>
+      </c>
+      <c r="J31" s="44">
+        <f>I31-H31</f>
+        <v>3</v>
+      </c>
+      <c r="K31" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L31" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A32" s="102"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="124"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="76">
+        <v>44019</v>
+      </c>
+      <c r="I32" s="76">
+        <v>44022</v>
+      </c>
+      <c r="J32" s="44">
+        <v>3</v>
+      </c>
+      <c r="K32" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A33" s="102"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="45">
+        <v>44019</v>
+      </c>
+      <c r="I33" s="45">
+        <v>44022</v>
+      </c>
+      <c r="J33" s="44">
+        <f>I33-H33</f>
+        <v>3</v>
+      </c>
+      <c r="K33" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L33" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="45">
+        <v>44019</v>
+      </c>
+      <c r="I34" s="45">
+        <v>44022</v>
+      </c>
+      <c r="J34" s="44">
+        <f>I34-H34</f>
+        <v>3</v>
+      </c>
+      <c r="K34" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L34" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A35" s="102"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="124"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="81" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" s="45">
+        <v>44019</v>
+      </c>
+      <c r="I35" s="45">
+        <v>44022</v>
+      </c>
+      <c r="J35" s="44">
+        <f>I35-H35</f>
+        <v>3</v>
+      </c>
+      <c r="K35" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="33" customHeight="1">
+      <c r="A36" s="103"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="125"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="G36" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="45">
+        <v>44019</v>
+      </c>
+      <c r="I36" s="45">
+        <v>44022</v>
+      </c>
+      <c r="J36" s="44">
+        <f>I36-H36</f>
+        <v>3</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="47">
+        <v>1</v>
+      </c>
+      <c r="M36" s="25"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="P36" s="25"/>
+      <c r="Q36" s="25"/>
+      <c r="R36" s="25"/>
+      <c r="S36" s="25"/>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+    </row>
+    <row r="37" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A37" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J37" s="26">
+        <v>2</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L37" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="30.6" customHeight="1">
+      <c r="A38" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="98"/>
+      <c r="C38" s="99"/>
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="27">
+        <v>43837</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J38" s="26">
+        <v>10</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L38" s="38">
+        <f>AVERAGE(L44:L46)</f>
+        <v>1</v>
+      </c>
+      <c r="M38" s="25"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+    </row>
+    <row r="39" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A39" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="94"/>
+      <c r="D39" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="27">
+        <v>43868</v>
+      </c>
+      <c r="I39" s="27">
+        <v>43897</v>
+      </c>
+      <c r="J39" s="26">
+        <v>1</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="38">
+        <v>1</v>
+      </c>
+      <c r="N39" s="48"/>
+    </row>
+    <row r="40" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="69" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="27">
+        <v>43868</v>
+      </c>
+      <c r="I40" s="27">
+        <v>43897</v>
+      </c>
+      <c r="J40" s="26">
+        <v>1</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L40" s="38">
+        <v>1</v>
+      </c>
+      <c r="N40" s="48"/>
+    </row>
+    <row r="41" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="27">
+        <v>43868</v>
+      </c>
+      <c r="I41" s="27">
+        <v>43897</v>
+      </c>
+      <c r="J41" s="26">
+        <v>1</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L41" s="38">
+        <v>1</v>
+      </c>
+      <c r="N41" s="48"/>
+    </row>
+    <row r="42" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="68" t="s">
+        <v>105</v>
+      </c>
+      <c r="H42" s="27">
+        <v>43868</v>
+      </c>
+      <c r="I42" s="27">
+        <v>43897</v>
+      </c>
+      <c r="J42" s="26">
+        <v>1</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L42" s="38">
+        <v>1</v>
+      </c>
+      <c r="N42" s="48"/>
+    </row>
+    <row r="43" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="69" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="27">
+        <v>43868</v>
+      </c>
+      <c r="I43" s="27">
+        <v>43897</v>
+      </c>
+      <c r="J43" s="26">
+        <v>1</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L43" s="38">
+        <v>1</v>
+      </c>
+      <c r="N43" s="48"/>
+    </row>
+    <row r="44" spans="1:22" ht="49.5" customHeight="1">
+      <c r="A44" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" s="27">
+        <v>44021</v>
+      </c>
+      <c r="I44" s="27">
+        <v>44024</v>
+      </c>
+      <c r="J44" s="26">
+        <f>I44-H44</f>
+        <v>3</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="38">
+        <v>1</v>
+      </c>
+      <c r="M44" s="25"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="25"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="25"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="25"/>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+    </row>
+    <row r="45" spans="1:22" s="25" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A45" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="123" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="G45" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="45">
+        <v>44024</v>
+      </c>
+      <c r="I45" s="45">
+        <v>44024</v>
+      </c>
+      <c r="J45" s="26">
+        <v>1</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="38">
+        <v>1</v>
+      </c>
+      <c r="N45" s="48"/>
+    </row>
+    <row r="46" spans="1:22" ht="46.5" customHeight="1">
+      <c r="A46" s="103"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H46" s="45">
+        <v>44027</v>
+      </c>
+      <c r="I46" s="45">
         <v>44029</v>
       </c>
-      <c r="D29" s="32">
+      <c r="J46" s="44">
+        <f>I46-H46</f>
+        <v>2</v>
+      </c>
+      <c r="K46" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="47">
+        <v>1</v>
+      </c>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+    </row>
+    <row r="47" spans="1:22" ht="30.75" customHeight="1">
+      <c r="A47" s="131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="131"/>
+      <c r="C47" s="131"/>
+      <c r="D47" s="131"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="131"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+    </row>
+    <row r="48" spans="1:22" s="25" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A48" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27">
+        <v>44029</v>
+      </c>
+      <c r="I48" s="27">
         <v>44050</v>
       </c>
-      <c r="E29" s="31">
-        <f t="shared" ref="E29" si="7">D29-C29</f>
+      <c r="J48" s="26">
+        <f t="shared" ref="J48:J54" si="1">I48-H48</f>
         <v>21</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="44">
-        <f>AVERAGE(G30,G36)</f>
-        <v>0.18375000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="30" customFormat="1" ht="27" customHeight="1">
-      <c r="A30" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="32">
+      <c r="K48" s="28"/>
+      <c r="L48" s="39">
+        <f>AVERAGE(L49,L57)</f>
+        <v>0.41026785714285718</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="25" customFormat="1" ht="27" customHeight="1">
+      <c r="A49" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27">
         <v>44029</v>
       </c>
-      <c r="D30" s="32">
+      <c r="I49" s="27">
         <v>44050</v>
       </c>
-      <c r="E30" s="31">
-        <f t="shared" ref="E30" si="8">D30-C30</f>
+      <c r="J49" s="26">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F30" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G30" s="45">
-        <f>AVERAGE(G31:G35)</f>
-        <v>0.23000000000000004</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="38.25" customHeight="1">
-      <c r="A31" s="25" t="s">
+      <c r="K49" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L49" s="40">
+        <f>AVERAGE(L50:L56)</f>
+        <v>0.36428571428571432</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="38.25" customHeight="1">
+      <c r="A50" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="123" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" s="128"/>
+      <c r="E50" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="F50" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>125</v>
+      </c>
+      <c r="H50" s="27">
+        <v>44029</v>
+      </c>
+      <c r="I50" s="27">
+        <v>44036</v>
+      </c>
+      <c r="J50" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L50" s="38">
+        <v>1</v>
+      </c>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+    </row>
+    <row r="51" spans="1:22" s="25" customFormat="1" ht="45" customHeight="1">
+      <c r="A51" s="126"/>
+      <c r="B51" s="110"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G51" s="85" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="27">
+        <v>44029</v>
+      </c>
+      <c r="I51" s="27">
+        <v>44036</v>
+      </c>
+      <c r="J51" s="26">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="L51" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A52" s="130" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="110"/>
+      <c r="E52" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F52" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="G52" s="86" t="s">
+        <v>27</v>
+      </c>
+      <c r="H52" s="50">
+        <v>44029</v>
+      </c>
+      <c r="I52" s="50">
+        <v>44043</v>
+      </c>
+      <c r="J52" s="90">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="K52" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="L52" s="51">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="25" customFormat="1" ht="57" customHeight="1">
+      <c r="A53" s="130"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G53" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="H53" s="77">
+        <v>44036</v>
+      </c>
+      <c r="I53" s="77">
+        <v>44043</v>
+      </c>
+      <c r="J53" s="78">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K53" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="L53" s="80">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A54" s="126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="127" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="116" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="127"/>
+      <c r="E54" s="88" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="G54" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="50">
+        <v>44036</v>
+      </c>
+      <c r="I54" s="50">
+        <v>44043</v>
+      </c>
+      <c r="J54" s="90">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="K54" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="L54" s="51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="25" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A55" s="126"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="127"/>
+      <c r="E55" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="H55" s="50">
+        <v>44036</v>
+      </c>
+      <c r="I55" s="50">
+        <v>44043</v>
+      </c>
+      <c r="J55" s="90">
+        <v>7</v>
+      </c>
+      <c r="K55" s="64" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" s="51">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A56" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C31" s="32">
+      <c r="C56" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27">
+        <v>44039</v>
+      </c>
+      <c r="I56" s="27">
+        <v>44050</v>
+      </c>
+      <c r="J56" s="26">
+        <f>I56-H56</f>
+        <v>11</v>
+      </c>
+      <c r="K56" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L56" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="25" customFormat="1" ht="33.75" customHeight="1">
+      <c r="A57" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27">
         <v>44029</v>
       </c>
-      <c r="D31" s="32">
-        <v>44036</v>
-      </c>
-      <c r="E31" s="31">
-        <f t="shared" ref="E31" si="9">D31-C31</f>
+      <c r="I57" s="27">
+        <v>44050</v>
+      </c>
+      <c r="J57" s="26">
+        <f>I57-H57</f>
+        <v>21</v>
+      </c>
+      <c r="K57" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L57" s="40">
+        <f>AVERAGE(L58:L63,L65:L66)</f>
+        <v>0.45625000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="25" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A58" s="120" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" s="94" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" s="94"/>
+      <c r="E58" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F58" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="H58" s="27">
+        <v>44029</v>
+      </c>
+      <c r="I58" s="27">
+        <v>44050</v>
+      </c>
+      <c r="J58" s="26">
+        <f>I58-H58</f>
+        <v>21</v>
+      </c>
+      <c r="K58" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="L58" s="38">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" s="25" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A59" s="121"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="124"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="84" t="s">
+        <v>146</v>
+      </c>
+      <c r="F59" s="92" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="52">
+        <v>44030</v>
+      </c>
+      <c r="I59" s="52">
+        <v>44050</v>
+      </c>
+      <c r="J59" s="91">
+        <v>21</v>
+      </c>
+      <c r="K59" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A60" s="122"/>
+      <c r="B60" s="96"/>
+      <c r="C60" s="125"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="84" t="s">
+        <v>148</v>
+      </c>
+      <c r="F60" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="84"/>
+      <c r="H60" s="52">
+        <v>44030</v>
+      </c>
+      <c r="I60" s="52">
+        <v>44050</v>
+      </c>
+      <c r="J60" s="91">
+        <v>21</v>
+      </c>
+      <c r="K60" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L60" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A61" s="130" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" s="94" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61" s="123" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="128"/>
+      <c r="E61" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" s="91" t="s">
+        <v>152</v>
+      </c>
+      <c r="G61" s="70" t="s">
+        <v>153</v>
+      </c>
+      <c r="H61" s="52">
+        <v>44032</v>
+      </c>
+      <c r="I61" s="52">
+        <v>44050</v>
+      </c>
+      <c r="J61" s="91">
+        <f>I61-H61</f>
+        <v>18</v>
+      </c>
+      <c r="K61" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L61" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A62" s="130"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="F62" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="52">
+        <v>44032</v>
+      </c>
+      <c r="I62" s="52">
+        <v>44050</v>
+      </c>
+      <c r="J62" s="91">
+        <f>I62-H62</f>
+        <v>18</v>
+      </c>
+      <c r="K62" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L62" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
+      <c r="A63" s="130"/>
+      <c r="B63" s="133"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="F63" s="91" t="s">
+        <v>157</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" s="52">
+        <v>44032</v>
+      </c>
+      <c r="I63" s="52">
+        <v>44050</v>
+      </c>
+      <c r="J63" s="91">
+        <f>I63-H63</f>
+        <v>18</v>
+      </c>
+      <c r="K63" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="L63" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" ht="22.5" customHeight="1">
+      <c r="A64" s="132" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="132"/>
+      <c r="C64" s="132"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="132"/>
+      <c r="H64" s="132"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+    </row>
+    <row r="65" spans="1:22" ht="44.25" customHeight="1">
+      <c r="A65" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="55">
+        <v>44043</v>
+      </c>
+      <c r="I65" s="55">
+        <v>44050</v>
+      </c>
+      <c r="J65" s="92">
+        <f t="shared" ref="J65:J83" si="2">I65-H65</f>
         <v>7</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="43">
+      <c r="K65" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" s="38">
+        <v>0</v>
+      </c>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+    </row>
+    <row r="66" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A66" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="27">
+        <v>44050</v>
+      </c>
+      <c r="I66" s="27">
+        <v>44057</v>
+      </c>
+      <c r="J66" s="26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="K66" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" s="38">
+        <v>0</v>
+      </c>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+    </row>
+    <row r="67" spans="1:22" ht="32.25" customHeight="1">
+      <c r="A67" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="27">
+        <v>44057</v>
+      </c>
+      <c r="I67" s="27">
+        <v>44060</v>
+      </c>
+      <c r="J67" s="26">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="K67" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L67" s="39">
+        <f>AVERAGE(L71,L75,L78)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+    </row>
+    <row r="68" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A68" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27">
+        <v>44057</v>
+      </c>
+      <c r="I68" s="27">
+        <v>44058</v>
+      </c>
+      <c r="J68" s="26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="30" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C32" s="19">
-        <v>44029</v>
-      </c>
-      <c r="D32" s="19">
-        <v>44043</v>
-      </c>
-      <c r="E32" s="18">
-        <f>D32-C32</f>
-        <v>14</v>
-      </c>
-      <c r="F32" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="43">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="30" customFormat="1" ht="33" customHeight="1">
-      <c r="A33" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="C33" s="19">
-        <v>44036</v>
-      </c>
-      <c r="D33" s="19">
-        <v>44043</v>
-      </c>
-      <c r="E33" s="18">
-        <f>D33-C33</f>
-        <v>7</v>
-      </c>
-      <c r="F33" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="43">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="30" customFormat="1" ht="2.25" hidden="1" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="43">
+      <c r="K68" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L68" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="30" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A35" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="32">
-        <v>44039</v>
-      </c>
-      <c r="D35" s="32">
-        <v>44050</v>
-      </c>
-      <c r="E35" s="31">
-        <f>D35-C35</f>
-        <v>11</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="43">
+    <row r="69" spans="1:22" s="25" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A69" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="27">
+        <v>44057</v>
+      </c>
+      <c r="I69" s="27">
+        <v>44058</v>
+      </c>
+      <c r="J69" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K69" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="30" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A36" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C36" s="32">
-        <v>44029</v>
-      </c>
-      <c r="D36" s="32">
-        <v>44050</v>
-      </c>
-      <c r="E36" s="31">
-        <f>D36-C36</f>
+    <row r="70" spans="1:22" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A70" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="36">
+        <v>44058</v>
+      </c>
+      <c r="I70" s="27">
+        <v>44060</v>
+      </c>
+      <c r="J70" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K70" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L70" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="25" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A71" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="27">
+        <v>44060</v>
+      </c>
+      <c r="I71" s="27">
+        <v>44064</v>
+      </c>
+      <c r="J71" s="26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K71" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L71" s="40">
+        <f>AVERAGE(L72:L74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" s="25" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A72" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="27">
+        <v>44060</v>
+      </c>
+      <c r="I72" s="27">
+        <v>44061</v>
+      </c>
+      <c r="J72" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K72" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L72" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="25" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A73" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="27">
+        <v>44060</v>
+      </c>
+      <c r="I73" s="27">
+        <v>44062</v>
+      </c>
+      <c r="J73" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K73" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L73" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="25" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A74" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="27">
+        <v>44060</v>
+      </c>
+      <c r="I74" s="27">
+        <v>44064</v>
+      </c>
+      <c r="J74" s="26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K74" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L74" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="24" customHeight="1">
+      <c r="A75" s="35" t="s">
+        <v>170</v>
+      </c>
+      <c r="B75" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F36" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="45">
-        <f>AVERAGE(G37:G38,G40:G41)</f>
-        <v>0.13750000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="30" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A37" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="19">
-        <v>44029</v>
-      </c>
-      <c r="D37" s="32">
-        <v>44050</v>
-      </c>
-      <c r="E37" s="18">
-        <f>D37-C37</f>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="27">
+        <v>44064</v>
+      </c>
+      <c r="I75" s="27">
+        <v>44066</v>
+      </c>
+      <c r="J75" s="26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="K75" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L75" s="40">
+        <f>AVERAGE(L76:L77)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+    </row>
+    <row r="76" spans="1:22" s="25" customFormat="1" ht="18.75" customHeight="1">
+      <c r="A76" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F37" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="43">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="30" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A38" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="19">
-        <v>44032</v>
-      </c>
-      <c r="D38" s="32">
-        <v>44050</v>
-      </c>
-      <c r="E38" s="18">
-        <f>D38-C38</f>
-        <v>18</v>
-      </c>
-      <c r="F38" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G38" s="43">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A39" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="43"/>
-    </row>
-    <row r="40" spans="1:7" ht="44.25" customHeight="1">
-      <c r="A40" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="32">
-        <v>44043</v>
-      </c>
-      <c r="D40" s="32">
-        <v>44050</v>
-      </c>
-      <c r="E40" s="31">
-        <f t="shared" ref="E40:E41" si="10">D40-C40</f>
-        <v>7</v>
-      </c>
-      <c r="F40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="43">
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27">
+        <v>44064</v>
+      </c>
+      <c r="I76" s="27">
+        <v>44065</v>
+      </c>
+      <c r="J76" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K76" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L76" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A41" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="32">
-        <v>44050</v>
-      </c>
-      <c r="D41" s="32">
-        <v>44057</v>
-      </c>
-      <c r="E41" s="31">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
-      <c r="F41" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="43">
+    <row r="77" spans="1:22" s="25" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A77" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27">
+        <v>44065</v>
+      </c>
+      <c r="I77" s="27">
+        <v>44066</v>
+      </c>
+      <c r="J77" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L77" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="32.25" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19">
-        <v>44057</v>
-      </c>
-      <c r="D42" s="32">
-        <v>44060</v>
-      </c>
-      <c r="E42" s="18">
-        <f t="shared" ref="E42:E53" si="11">D42-C42</f>
+    <row r="78" spans="1:22" ht="22.5" customHeight="1">
+      <c r="A78" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27">
+        <v>44066</v>
+      </c>
+      <c r="I78" s="27">
+        <v>44067</v>
+      </c>
+      <c r="J78" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K78" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L78" s="40">
+        <f>AVERAGE(L79:L80)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="25"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="25"/>
+      <c r="S78" s="25"/>
+      <c r="T78" s="25"/>
+      <c r="U78" s="25"/>
+      <c r="V78" s="25"/>
+    </row>
+    <row r="79" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A79" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="27">
+        <v>44066</v>
+      </c>
+      <c r="I79" s="27">
+        <v>44067</v>
+      </c>
+      <c r="J79" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K79" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L79" s="41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A80" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="27">
+        <v>44066</v>
+      </c>
+      <c r="I80" s="27">
+        <v>44067</v>
+      </c>
+      <c r="J80" s="26">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K80" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L80" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A81" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="27">
+        <v>44067</v>
+      </c>
+      <c r="I81" s="27">
+        <v>44071</v>
+      </c>
+      <c r="J81" s="26">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="K81" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L81" s="39">
+        <f>AVERAGE(L82:L83)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="25"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="25"/>
+      <c r="S81" s="25"/>
+      <c r="T81" s="25"/>
+      <c r="U81" s="25"/>
+      <c r="V81" s="25"/>
+    </row>
+    <row r="82" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A82" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="27">
+        <v>44067</v>
+      </c>
+      <c r="I82" s="27">
+        <v>44070</v>
+      </c>
+      <c r="J82" s="26">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F42" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="44">
-        <f>AVERAGE(G46,G50,G53)</f>
+      <c r="K82" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L82" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="30" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="32">
-        <v>44057</v>
-      </c>
-      <c r="D43" s="32">
-        <v>44058</v>
-      </c>
-      <c r="E43" s="31">
-        <f t="shared" ref="E43:E49" si="12">D43-C43</f>
+    <row r="83" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A83" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="26"/>
+      <c r="G83" s="26"/>
+      <c r="H83" s="27">
+        <v>44070</v>
+      </c>
+      <c r="I83" s="27">
+        <v>44071</v>
+      </c>
+      <c r="J83" s="26">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F43" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="43">
+      <c r="K83" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="L83" s="38">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" s="30" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="32">
-        <v>44057</v>
-      </c>
-      <c r="D44" s="32">
-        <v>44058</v>
-      </c>
-      <c r="E44" s="31">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="F44" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="30" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A45" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="41">
-        <v>44058</v>
-      </c>
-      <c r="D45" s="32">
-        <v>44060</v>
-      </c>
-      <c r="E45" s="31">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="F45" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="30" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A46" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="32">
-        <v>44060</v>
-      </c>
-      <c r="D46" s="32">
-        <v>44064</v>
-      </c>
-      <c r="E46" s="31">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="F46" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="45">
-        <f>AVERAGE(G47:G49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="30" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A47" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="32">
-        <v>44060</v>
-      </c>
-      <c r="D47" s="32">
-        <v>44061</v>
-      </c>
-      <c r="E47" s="31">
-        <f t="shared" ref="E47:E48" si="13">D47-C47</f>
-        <v>1</v>
-      </c>
-      <c r="F47" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="30" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A48" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="32">
-        <v>44060</v>
-      </c>
-      <c r="D48" s="32">
-        <v>44062</v>
-      </c>
-      <c r="E48" s="31">
-        <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="F48" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" s="30" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="32">
-        <v>44060</v>
-      </c>
-      <c r="D49" s="32">
-        <v>44064</v>
-      </c>
-      <c r="E49" s="31">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="F49" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" ht="24" customHeight="1">
-      <c r="A50" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="32">
-        <v>44064</v>
-      </c>
-      <c r="D50" s="19">
-        <v>44066</v>
-      </c>
-      <c r="E50" s="18">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="F50" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="45">
-        <f>AVERAGE(G51:G52)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="30" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A51" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B51" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="32">
-        <v>44064</v>
-      </c>
-      <c r="D51" s="32">
-        <v>44065</v>
-      </c>
-      <c r="E51" s="31">
-        <f t="shared" ref="E51:E52" si="14">D51-C51</f>
-        <v>1</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" s="30" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A52" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="32">
-        <v>44065</v>
-      </c>
-      <c r="D52" s="32">
-        <v>44066</v>
-      </c>
-      <c r="E52" s="31">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="F52" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="22.5" customHeight="1">
-      <c r="A53" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="32">
-        <v>44066</v>
-      </c>
-      <c r="D53" s="32">
-        <v>44067</v>
-      </c>
-      <c r="E53" s="18">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="F53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="45">
-        <f>AVERAGE(G54:G55)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="30" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A54" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="32">
-        <v>44066</v>
-      </c>
-      <c r="D54" s="32">
-        <v>44067</v>
-      </c>
-      <c r="E54" s="31">
-        <f t="shared" ref="E54:E55" si="15">D54-C54</f>
-        <v>1</v>
-      </c>
-      <c r="F54" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="30" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="32">
-        <v>44066</v>
-      </c>
-      <c r="D55" s="32">
-        <v>44067</v>
-      </c>
-      <c r="E55" s="31">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="F55" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A56" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="32">
-        <v>44067</v>
-      </c>
-      <c r="D56" s="32">
-        <v>44071</v>
-      </c>
-      <c r="E56" s="18">
-        <f>D56-C56</f>
-        <v>4</v>
-      </c>
-      <c r="F56" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="44">
-        <f>AVERAGE(G57:G58)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" s="30" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A57" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B57" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="32">
-        <v>44067</v>
-      </c>
-      <c r="D57" s="32">
-        <v>44070</v>
-      </c>
-      <c r="E57" s="31">
-        <f t="shared" ref="E57" si="16">D57-C57</f>
-        <v>3</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A58" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B58" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="19">
-        <v>44070</v>
-      </c>
-      <c r="D58" s="19">
-        <v>44071</v>
-      </c>
-      <c r="E58" s="18">
-        <f>D58-C58</f>
-        <v>1</v>
-      </c>
-      <c r="F58" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="25.5" customHeight="1">
-      <c r="A59" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B59" s="47"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="43"/>
-    </row>
-    <row r="64" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="I64" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-    </row>
-    <row r="65" spans="2:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B65" s="36"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="36"/>
-      <c r="F65" s="36"/>
-      <c r="H65" s="36"/>
-      <c r="M65" s="36"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="36"/>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="36"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="25"/>
+      <c r="S83" s="25"/>
+      <c r="T83" s="25"/>
+      <c r="U83" s="25"/>
+      <c r="V83" s="25"/>
+    </row>
+    <row r="84" spans="1:22" ht="25.5" customHeight="1">
+      <c r="A84" s="131" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
+      <c r="J84" s="131"/>
+      <c r="K84" s="131"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="25"/>
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="25"/>
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="25"/>
+    </row>
+    <row r="85" spans="1:22">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
+      <c r="K85" s="25"/>
+      <c r="L85" s="25"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="25"/>
+      <c r="S85" s="25"/>
+      <c r="T85" s="25"/>
+      <c r="U85" s="25"/>
+      <c r="V85" s="25"/>
+    </row>
+    <row r="86" spans="1:22">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
+      <c r="K86" s="25"/>
+      <c r="L86" s="25"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="25"/>
+      <c r="S86" s="25"/>
+      <c r="T86" s="25"/>
+      <c r="U86" s="25"/>
+      <c r="V86" s="25"/>
+    </row>
+    <row r="87" spans="1:22">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
+      <c r="K87" s="25"/>
+      <c r="L87" s="25"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="25"/>
+      <c r="S87" s="25"/>
+      <c r="T87" s="25"/>
+      <c r="U87" s="25"/>
+      <c r="V87" s="25"/>
+    </row>
+    <row r="88" spans="1:22">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
+      <c r="K88" s="25"/>
+      <c r="L88" s="25"/>
+      <c r="M88" s="25"/>
+      <c r="N88" s="25"/>
+      <c r="O88" s="25"/>
+      <c r="P88" s="25"/>
+      <c r="Q88" s="25"/>
+      <c r="R88" s="25"/>
+      <c r="S88" s="25"/>
+      <c r="T88" s="25"/>
+      <c r="U88" s="25"/>
+      <c r="V88" s="25"/>
+    </row>
+    <row r="89" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I89" s="31"/>
+      <c r="J89" s="31"/>
+      <c r="K89" s="31"/>
+      <c r="L89" s="31"/>
+      <c r="N89" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="S89" s="31"/>
+      <c r="T89" s="31"/>
+      <c r="U89" s="31"/>
+      <c r="V89" s="31"/>
+    </row>
+    <row r="90" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="31"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="31"/>
+      <c r="K90" s="31"/>
+      <c r="M90" s="31"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
+      <c r="T90" s="31"/>
+      <c r="U90" s="31"/>
+      <c r="V90" s="31"/>
+    </row>
+    <row r="91" spans="1:22">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
+      <c r="K91" s="25"/>
+      <c r="L91" s="25"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="25"/>
+      <c r="S91" s="25"/>
+      <c r="T91" s="25"/>
+      <c r="U91" s="25"/>
+      <c r="V91" s="25"/>
+    </row>
+    <row r="92" spans="1:22">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+    </row>
+    <row r="93" spans="1:22">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25"/>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A39:F39"/>
+  <mergeCells count="74">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="A31:A36"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="A28:A30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G20" r:id="rId1"/>
+    <hyperlink ref="G21" r:id="rId2"/>
+    <hyperlink ref="G34" r:id="rId3"/>
+    <hyperlink ref="G23" r:id="rId4"/>
+    <hyperlink ref="G63" r:id="rId5"/>
+    <hyperlink ref="G12" r:id="rId6"/>
+    <hyperlink ref="G24" r:id="rId7"/>
+    <hyperlink ref="G39" r:id="rId8"/>
+    <hyperlink ref="G30" r:id="rId9"/>
+    <hyperlink ref="G33" r:id="rId10"/>
+    <hyperlink ref="G43" r:id="rId11"/>
+    <hyperlink ref="G25" r:id="rId12"/>
+    <hyperlink ref="G41" r:id="rId13"/>
+    <hyperlink ref="G44" r:id="rId14"/>
+    <hyperlink ref="G32" r:id="rId15"/>
+    <hyperlink ref="G40" r:id="rId16"/>
+    <hyperlink ref="G26:G27" r:id="rId17" display="https://github.com/antonyMontalvo/FaceSolutions/commit/8f0ec13380b96dbff2cf0f44e517515e6d8e935b"/>
+    <hyperlink ref="G58" r:id="rId18"/>
+    <hyperlink ref="G51" r:id="rId19"/>
+    <hyperlink ref="G36" r:id="rId20"/>
+    <hyperlink ref="G28:G29" r:id="rId21" display="https://github.com/antonyMontalvo/FaceSolutions/commit/b7f87017c045c76f3ed7353bf35a7680607f9adf"/>
+    <hyperlink ref="G42" r:id="rId22"/>
+    <hyperlink ref="G37" r:id="rId23"/>
+    <hyperlink ref="G50" r:id="rId24"/>
+    <hyperlink ref="G31" r:id="rId25"/>
+    <hyperlink ref="G55" r:id="rId26"/>
+    <hyperlink ref="G61" r:id="rId27"/>
+    <hyperlink ref="G19" r:id="rId28"/>
+    <hyperlink ref="G35" r:id="rId29"/>
+    <hyperlink ref="G54" r:id="rId30"/>
+    <hyperlink ref="G53" r:id="rId31"/>
+    <hyperlink ref="G62" r:id="rId32"/>
+    <hyperlink ref="G59" r:id="rId33"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId34"/>
+  <drawing r:id="rId35"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4239,43 +6997,48 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A4" s="14" t="s">
-        <v>44</v>
+      <c r="A4" s="13" t="s">
+        <v>188</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
         <v>187.5</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="15">
         <v>187.5</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>187.5</v>
       </c>
       <c r="F4" s="8">
@@ -4283,19 +7046,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A5" s="14" t="s">
-        <v>45</v>
+      <c r="A5" s="13" t="s">
+        <v>189</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="15">
         <v>360</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="15">
         <v>360</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>360</v>
       </c>
       <c r="F5" s="8">
@@ -4303,19 +7066,19 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A6" s="14" t="s">
-        <v>46</v>
+      <c r="A6" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="B6" s="8">
         <v>0.3</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>3000</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <v>3000</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <v>3000</v>
       </c>
       <c r="F6" s="8">
@@ -4323,19 +7086,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>47</v>
+      <c r="A7" s="13" t="s">
+        <v>191</v>
       </c>
       <c r="B7" s="8">
         <v>0.15</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>3000</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="15">
         <v>3000</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>3000</v>
       </c>
       <c r="F7" s="8">
@@ -4343,19 +7106,19 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A8" s="14" t="s">
-        <v>48</v>
+      <c r="A8" s="13" t="s">
+        <v>192</v>
       </c>
       <c r="B8" s="8">
         <v>0.15</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="15">
         <v>6000</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="15">
         <v>6000</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="15">
         <v>6000</v>
       </c>
       <c r="F8" s="8">
@@ -4363,19 +7126,19 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A9" s="14" t="s">
-        <v>49</v>
+      <c r="A9" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="B9" s="8">
         <v>0.15</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>3750</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="15">
         <v>3750</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="15">
         <v>3750</v>
       </c>
       <c r="F9" s="8">
@@ -4383,19 +7146,19 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A10" s="14" t="s">
-        <v>50</v>
+      <c r="A10" s="13" t="s">
+        <v>194</v>
       </c>
       <c r="B10" s="8">
         <v>0.15</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>2500</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>2500</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>2500</v>
       </c>
       <c r="F10" s="8">
@@ -4403,19 +7166,19 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A11" s="14" t="s">
-        <v>51</v>
+      <c r="A11" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="B11" s="8">
         <v>0.15</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>6250</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>6250</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>6250</v>
       </c>
       <c r="F11" s="8">
@@ -4423,19 +7186,19 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A12" s="14" t="s">
-        <v>52</v>
+      <c r="A12" s="13" t="s">
+        <v>196</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="15">
         <v>250</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>250</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>250</v>
       </c>
       <c r="F12" s="8">
@@ -4443,25 +7206,32 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="43.15" customHeight="1">
-      <c r="A13" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23">
+      <c r="A13" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19">
         <f>SUM(C4:C12)</f>
         <v>25297.5</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="19">
         <f t="shared" ref="D13:E13" si="0">SUM(D4:D12)</f>
         <v>25297.5</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="19">
         <f t="shared" si="0"/>
         <v>25297.5</v>
       </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" ht="43.15" customHeight="1"/>
+      <c r="F13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" ht="43.15" customHeight="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/lineas_base/FRSIAAATR/LB_Planificacion/FRSIAAATR_C.xlsx
+++ b/lineas_base/FRSIAAATR/LB_Planificacion/FRSIAAATR_C.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antony\Desktop\Repositorio\FaceSolutions\lineas_base\FRSIAAATR\LB_Planificacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEC752D-5B9A-40A6-8930-C14297753964}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="0" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan de proyecto y Gantt" sheetId="1" r:id="rId1"/>
@@ -20,9 +21,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="189">
   <si>
     <t>Nombre del proyecto</t>
   </si>
@@ -122,9 +121,6 @@
     <t>Montalvo Garcia, Antony Abel</t>
   </si>
   <si>
-    <t xml:space="preserve">      Montalvo Garcia, Antony Abel                   Garcia Martinez, Christian Arturo        </t>
-  </si>
-  <si>
     <t>Documento de Plan de Alcance</t>
   </si>
   <si>
@@ -152,9 +148,6 @@
     <t>Documento de Negocio</t>
   </si>
   <si>
-    <t>Montalvo Garcia, Antony Abel         Pernia Meza, Iver Elvis                         Tovar Taboada, Ricardo Manuel</t>
-  </si>
-  <si>
     <t>Diagrama de Negocio: Registrar Inscripción de postulantes</t>
   </si>
   <si>
@@ -188,9 +181,6 @@
     <t>Documento de especificación de requisitos.</t>
   </si>
   <si>
-    <t xml:space="preserve">           Almonacid Paripancca, Antony                     Garcia Martinez, Christian Arturo      Montalvo Garcia, Antony Abel</t>
-  </si>
-  <si>
     <t>Documento de Requisitos</t>
   </si>
   <si>
@@ -254,9 +244,6 @@
     <t>Pernia Meza, Iver Elvis</t>
   </si>
   <si>
-    <t>Almonacid Paripancca, Antony Brayan    Garcia Martinez, Christian Arturo                Pernia Meza, Iver Elvis                                  Tovar Taboada, Ricardo Manuel            Unocc Sihuinta, Roberto Carlos</t>
-  </si>
-  <si>
     <t>Documento de Arquitectura</t>
   </si>
   <si>
@@ -374,9 +361,6 @@
     <t>Analizar un eficiente algoritmo de reconocimiento facial.</t>
   </si>
   <si>
-    <t>Garcia Martinez, Christian Arturo Montalvo Garcia, Antony Abel                     Unocc Sihuinta, Roberto Carlos</t>
-  </si>
-  <si>
     <t>Busqueda de diversos algoritmo, que permita realizar el reconocimiento facial</t>
   </si>
   <si>
@@ -399,9 +383,6 @@
   </si>
   <si>
     <t>Implementar algoritmo de reconocimiento facial.</t>
-  </si>
-  <si>
-    <t>Montalvo Garcia, Antony Abel Unocc Sihuinta, Roberto Carlos</t>
   </si>
   <si>
     <t>Carga de modelos y demo del agoritmo de reconocimiento facial</t>
@@ -442,9 +423,6 @@
     <t>Desarrollo backend del módulo del administrador</t>
   </si>
   <si>
-    <t xml:space="preserve">Almonacid Paripancca, Antony Brayan Garcia Martinez, Christian Arturo </t>
-  </si>
-  <si>
     <t>Creación de endpoint para la consulta de todas las solicitudes realizadas</t>
   </si>
   <si>
@@ -470,9 +448,6 @@
   </si>
   <si>
     <t>Interfaz de usuario del módulo para el postulante</t>
-  </si>
-  <si>
-    <t>Montalvo Garcia, Antony Abel Unocc Sihuinta, Roberto Carlos Tovar Taboada, Ricardo Manuel</t>
   </si>
   <si>
     <t>Estructura para reutilizar partes específicas de las vistas, conexión del backend con las vistas</t>
@@ -504,9 +479,6 @@
     </r>
   </si>
   <si>
-    <t>Almonacid Paripancca, Antony Brayan Garcia Martinez, Christian Arturo Pernia Meza, Iver Elvis</t>
-  </si>
-  <si>
     <t>Creación de interfaz: Listado de Postulantes y Revisión de Requisitos (fotos).</t>
   </si>
   <si>
@@ -662,9 +634,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;S/&quot;\ #,##0.00;[Red]&quot;S/&quot;\ \-#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;S/&quot;\ #,##0.00;[Red]&quot;S/&quot;\ \-#,##0.00"/>
   </numFmts>
   <fonts count="17">
     <font>
@@ -1095,7 +1067,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,14 +1094,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1332,6 +1304,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,6 +1334,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1352,123 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1477,7 +1434,7 @@
     <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6"/>
+    <cellStyle name="Hyperlink" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1494,7 +1451,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1529,7 +1486,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan de proyecto y Gantt'!$H$11</c:f>
+              <c:f>'Plan de proyecto y Gantt'!$G$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1712,11 +1669,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Plan de proyecto y Gantt'!$H$12:$H$84</c15:sqref>
+                    <c15:sqref>'Plan de proyecto y Gantt'!$G$12:$G$84</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Plan de proyecto y Gantt'!$H$12:$H$33,'Plan de proyecto y Gantt'!$H$35:$H$84)</c:f>
+              <c:f>('Plan de proyecto y Gantt'!$G$12:$G$33,'Plan de proyecto y Gantt'!$G$35:$G$84)</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="72"/>
@@ -1921,7 +1878,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BC27-42F0-95D7-3BD26C201260}"/>
             </c:ext>
@@ -1932,7 +1889,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Plan de proyecto y Gantt'!$J$11</c:f>
+              <c:f>'Plan de proyecto y Gantt'!$I$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1955,7 +1912,7 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1965,7 +1922,7 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1975,7 +1932,7 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1985,7 +1942,7 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -1995,7 +1952,7 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2005,7 +1962,7 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2015,7 +1972,7 @@
             <c:idx val="6"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2025,7 +1982,7 @@
             <c:idx val="7"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2035,7 +1992,7 @@
             <c:idx val="8"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2045,7 +2002,7 @@
             <c:idx val="9"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2055,7 +2012,7 @@
             <c:idx val="10"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2065,7 +2022,7 @@
             <c:idx val="11"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2075,7 +2032,7 @@
             <c:idx val="12"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2085,7 +2042,7 @@
             <c:idx val="13"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2095,7 +2052,7 @@
             <c:idx val="14"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2105,7 +2062,7 @@
             <c:idx val="15"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2115,7 +2072,7 @@
             <c:idx val="17"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000011-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2125,7 +2082,7 @@
             <c:idx val="18"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2135,7 +2092,7 @@
             <c:idx val="19"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000013-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2145,7 +2102,7 @@
             <c:idx val="20"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2155,7 +2112,7 @@
             <c:idx val="21"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000015-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2165,7 +2122,7 @@
             <c:idx val="52"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000017-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2175,7 +2132,7 @@
             <c:idx val="53"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2185,7 +2142,7 @@
             <c:idx val="54"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000019-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2195,7 +2152,7 @@
             <c:idx val="55"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2205,7 +2162,7 @@
             <c:idx val="56"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2215,7 +2172,7 @@
             <c:idx val="57"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2225,7 +2182,7 @@
             <c:idx val="58"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2235,7 +2192,7 @@
             <c:idx val="59"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2245,7 +2202,7 @@
             <c:idx val="60"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2255,7 +2212,7 @@
             <c:idx val="61"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000020-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2265,7 +2222,7 @@
             <c:idx val="62"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000021-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2275,7 +2232,7 @@
             <c:idx val="63"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000022-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2285,7 +2242,7 @@
             <c:idx val="64"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000023-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2295,7 +2252,7 @@
             <c:idx val="65"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000024-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2305,7 +2262,7 @@
             <c:idx val="66"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000025-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2315,7 +2272,7 @@
             <c:idx val="67"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000026-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2325,7 +2282,7 @@
             <c:idx val="68"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000027-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2335,7 +2292,7 @@
             <c:idx val="69"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000028-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2345,7 +2302,7 @@
             <c:idx val="70"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000029-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2355,7 +2312,7 @@
             <c:idx val="71"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000002A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2365,7 +2322,7 @@
             <c:idx val="72"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000002B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2375,7 +2332,7 @@
             <c:idx val="73"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000002C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2385,7 +2342,7 @@
             <c:idx val="74"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000002D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2395,7 +2352,7 @@
             <c:idx val="75"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000002E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2405,7 +2362,7 @@
             <c:idx val="76"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000002F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2415,7 +2372,7 @@
             <c:idx val="77"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000030-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2425,7 +2382,7 @@
             <c:idx val="78"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000031-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2435,7 +2392,7 @@
             <c:idx val="79"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000032-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
@@ -2445,6 +2402,11 @@
             <c:idx val="80"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-16F2-433B-814D-52CB91DC5416}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2610,11 +2572,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Plan de proyecto y Gantt'!$J$12:$J$84</c15:sqref>
+                    <c15:sqref>'Plan de proyecto y Gantt'!$I$12:$I$84</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>('Plan de proyecto y Gantt'!$J$12:$J$33,'Plan de proyecto y Gantt'!$J$35:$J$84)</c:f>
+              <c:f>('Plan de proyecto y Gantt'!$I$12:$I$33,'Plan de proyecto y Gantt'!$I$35:$I$84)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
@@ -2819,7 +2781,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000033-BC27-42F0-95D7-3BD26C201260}"/>
             </c:ext>
@@ -3542,13 +3504,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>166968</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>84</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
@@ -3558,7 +3520,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3900,48 +3862,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V93"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="D47" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="34.875" customWidth="1"/>
-    <col min="3" max="3" width="34" style="25" customWidth="1"/>
-    <col min="4" max="4" width="35.875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="51.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="35.875" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="25.75" customWidth="1"/>
-    <col min="14" max="14" width="52.375" customWidth="1"/>
+    <col min="3" max="3" width="35.875" style="25" customWidth="1"/>
+    <col min="4" max="4" width="51.875" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="35.875" style="25" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="25.75" customWidth="1"/>
+    <col min="13" max="13" width="52.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="18.75">
+    <row r="2" spans="1:21" ht="18.75">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -3949,21 +3910,20 @@
       <c r="S2" s="25"/>
       <c r="T2" s="25"/>
       <c r="U2" s="25"/>
-      <c r="V2" s="25"/>
-    </row>
-    <row r="3" spans="1:22" ht="18.75">
+    </row>
+    <row r="3" spans="1:21" ht="18.75">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -3977,21 +3937,20 @@
       <c r="S3" s="25"/>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-    </row>
-    <row r="4" spans="1:22" ht="18.75">
+    </row>
+    <row r="4" spans="1:21" ht="18.75">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4005,21 +3964,20 @@
       <c r="S4" s="25"/>
       <c r="T4" s="25"/>
       <c r="U4" s="25"/>
-      <c r="V4" s="25"/>
-    </row>
-    <row r="5" spans="1:22" ht="18.75">
+    </row>
+    <row r="5" spans="1:21" ht="18.75">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -4033,9 +3991,8 @@
       <c r="S5" s="25"/>
       <c r="T5" s="25"/>
       <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-    </row>
-    <row r="6" spans="1:22">
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="10"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -4043,7 +4000,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
@@ -4057,9 +4014,8 @@
       <c r="S6" s="25"/>
       <c r="T6" s="25"/>
       <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-    </row>
-    <row r="7" spans="1:22" ht="18.75">
+    </row>
+    <row r="7" spans="1:21" ht="18.75">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -4070,8 +4026,8 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -4085,9 +4041,8 @@
       <c r="S7" s="25"/>
       <c r="T7" s="25"/>
       <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-    </row>
-    <row r="8" spans="1:22" ht="18.75">
+    </row>
+    <row r="8" spans="1:21" ht="18.75">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
@@ -4098,8 +4053,8 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
@@ -4113,9 +4068,8 @@
       <c r="S8" s="25"/>
       <c r="T8" s="25"/>
       <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-    </row>
-    <row r="9" spans="1:22" ht="18.75">
+    </row>
+    <row r="9" spans="1:21" ht="18.75">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -4126,8 +4080,8 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
@@ -4141,9 +4095,8 @@
       <c r="S9" s="25"/>
       <c r="T9" s="25"/>
       <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-    </row>
-    <row r="10" spans="1:22">
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4151,7 +4104,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
@@ -4165,9 +4118,8 @@
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-    </row>
-    <row r="11" spans="1:22" ht="30" customHeight="1">
+    </row>
+    <row r="11" spans="1:21" ht="30" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -4175,35 +4127,33 @@
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="37" t="s">
+      <c r="K11" s="37" t="s">
         <v>19</v>
       </c>
+      <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -4213,41 +4163,40 @@
       <c r="S11" s="25"/>
       <c r="T11" s="25"/>
       <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-    </row>
-    <row r="12" spans="1:22" ht="49.5" customHeight="1">
+    </row>
+    <row r="12" spans="1:21" ht="49.5" customHeight="1">
       <c r="A12" s="20" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="49" t="s">
+      <c r="C12" s="49" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="49"/>
       <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="68" t="s">
+      <c r="F12" s="68" t="s">
         <v>23</v>
       </c>
+      <c r="G12" s="27">
+        <v>43994</v>
+      </c>
       <c r="H12" s="27">
-        <v>43994</v>
-      </c>
-      <c r="I12" s="27">
         <v>44008</v>
       </c>
-      <c r="J12" s="26">
-        <f>I12-H12</f>
+      <c r="I12" s="26">
+        <f>H12-G12</f>
         <v>14</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="J12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="39">
-        <f>AVERAGE(L13:L16)</f>
+      <c r="K12" s="39">
+        <f>AVERAGE(K13:K16)</f>
         <v>1</v>
       </c>
+      <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -4257,42 +4206,39 @@
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-    </row>
-    <row r="13" spans="1:22" ht="23.25" customHeight="1">
+    </row>
+    <row r="13" spans="1:21" ht="23.25" customHeight="1">
       <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="105"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="F13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="26" t="s">
         <v>27</v>
       </c>
+      <c r="G13" s="27">
+        <v>43994</v>
+      </c>
       <c r="H13" s="27">
-        <v>43994</v>
-      </c>
-      <c r="I13" s="27">
         <v>44002</v>
       </c>
-      <c r="J13" s="26">
-        <f>I13-H13</f>
+      <c r="I13" s="26">
+        <f>H13-G13</f>
         <v>8</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="J13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="38">
+      <c r="K13" s="38">
         <v>1</v>
       </c>
+      <c r="L13" s="25"/>
       <c r="M13" s="25"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -4302,176 +4248,165 @@
       <c r="S13" s="25"/>
       <c r="T13" s="25"/>
       <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-    </row>
-    <row r="14" spans="1:22" s="25" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="114" t="s">
+    </row>
+    <row r="14" spans="1:21" s="25" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A14" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="126"/>
+      <c r="D14" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="87" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="87" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="50">
+        <v>44006</v>
+      </c>
+      <c r="H14" s="50">
+        <v>44008</v>
+      </c>
+      <c r="I14" s="90">
+        <f>H14-G14</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="25" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="119"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="90" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="90" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="50">
+        <v>44007</v>
+      </c>
+      <c r="H15" s="50">
+        <v>44008</v>
+      </c>
+      <c r="I15" s="90">
+        <f>H15-G15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="50">
-        <v>44006</v>
-      </c>
-      <c r="I14" s="50">
-        <v>44008</v>
-      </c>
-      <c r="J14" s="90">
-        <f>I14-H14</f>
-        <v>2</v>
-      </c>
-      <c r="K14" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="25" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="90" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="50">
-        <v>44007</v>
-      </c>
-      <c r="I15" s="50">
-        <v>44008</v>
-      </c>
-      <c r="J15" s="90">
-        <f>I15-H15</f>
-        <v>1</v>
-      </c>
-      <c r="K15" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="126"/>
+      <c r="D16" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="43" t="s">
+      <c r="F16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="27">
+        <v>44007</v>
+      </c>
+      <c r="H16" s="27">
+        <v>44008</v>
+      </c>
+      <c r="I16" s="26">
+        <v>1</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="25" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>34</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="27">
-        <v>44007</v>
-      </c>
-      <c r="I16" s="27">
-        <v>44008</v>
-      </c>
-      <c r="J16" s="26">
-        <v>1</v>
-      </c>
-      <c r="K16" s="62" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="25" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>35</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="107"/>
-      <c r="E17" s="44" t="s">
+      <c r="C17" s="127"/>
+      <c r="D17" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F17" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="27">
+        <v>44002</v>
+      </c>
+      <c r="H17" s="27">
+        <v>44008</v>
+      </c>
+      <c r="I17" s="26">
+        <f>H17-G17</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="26.25" customHeight="1">
+      <c r="A18" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H17" s="27">
-        <v>44002</v>
-      </c>
-      <c r="I17" s="27">
+      <c r="B18" s="132"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="27">
         <v>44008</v>
       </c>
-      <c r="J17" s="26">
-        <f>I17-H17</f>
-        <v>6</v>
-      </c>
-      <c r="K17" s="62" t="s">
+      <c r="H18" s="27">
+        <v>44029</v>
+      </c>
+      <c r="I18" s="26">
+        <f>H18-G18</f>
+        <v>21</v>
+      </c>
+      <c r="J18" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="38">
+      <c r="K18" s="39">
+        <f>AVERAGE(K22:K37)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="26.25" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="27">
-        <v>44008</v>
-      </c>
-      <c r="I18" s="27">
-        <v>44029</v>
-      </c>
-      <c r="J18" s="26">
-        <f>I18-H18</f>
-        <v>21</v>
-      </c>
-      <c r="K18" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="39">
-        <f>AVERAGE(L22:L37)</f>
-        <v>1</v>
-      </c>
+      <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="25"/>
       <c r="O18" s="25"/>
@@ -4481,144 +4416,136 @@
       <c r="S18" s="25"/>
       <c r="T18" s="25"/>
       <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-    </row>
-    <row r="19" spans="1:22" s="25" customFormat="1" ht="36" customHeight="1">
-      <c r="A19" s="101" t="s">
+    </row>
+    <row r="19" spans="1:21" s="25" customFormat="1" ht="36" customHeight="1">
+      <c r="A19" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="94" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="123" t="s">
+      <c r="E19" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="89" t="s">
+      <c r="F19" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="G19" s="45">
+        <v>44008</v>
+      </c>
+      <c r="H19" s="45">
+        <v>44013</v>
+      </c>
+      <c r="I19" s="26">
+        <v>5</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="81" t="s">
+      <c r="E20" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="45">
+      <c r="G20" s="45">
         <v>44008</v>
       </c>
-      <c r="I19" s="45">
+      <c r="H20" s="45">
         <v>44013</v>
       </c>
-      <c r="J19" s="26">
+      <c r="I20" s="26">
         <v>5</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="J20" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="38">
+      <c r="K20" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="61" t="s">
+    <row r="21" spans="1:21" s="25" customFormat="1" ht="45.2" customHeight="1">
+      <c r="A21" s="100"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="66" t="s">
+      <c r="E21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="45">
+      <c r="F21" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="45">
         <v>44008</v>
       </c>
-      <c r="I20" s="45">
+      <c r="H21" s="45">
         <v>44013</v>
       </c>
-      <c r="J20" s="26">
+      <c r="I21" s="44">
+        <f t="shared" ref="I21:I26" si="0">H21-G21</f>
         <v>5</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="J21" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="38">
+      <c r="K21" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="44" t="s">
+      <c r="M21" s="48"/>
+    </row>
+    <row r="22" spans="1:21" ht="29.25" customHeight="1">
+      <c r="A22" s="13" t="s">
         <v>47</v>
-      </c>
-      <c r="G21" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="H21" s="45">
-        <v>44008</v>
-      </c>
-      <c r="I21" s="45">
-        <v>44013</v>
-      </c>
-      <c r="J21" s="44">
-        <f t="shared" ref="J21:J26" si="0">I21-H21</f>
-        <v>5</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="47">
-        <v>1</v>
-      </c>
-      <c r="N21" s="48"/>
-    </row>
-    <row r="22" spans="1:22" ht="29.25" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>49</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="43" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="44" t="s">
         <v>27</v>
       </c>
+      <c r="G22" s="27">
+        <v>44008</v>
+      </c>
       <c r="H22" s="27">
-        <v>44008</v>
-      </c>
-      <c r="I22" s="27">
         <v>44013</v>
       </c>
-      <c r="J22" s="26">
+      <c r="I22" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="38">
+      <c r="K22" s="38">
         <v>1</v>
       </c>
+      <c r="L22" s="25"/>
       <c r="M22" s="25"/>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -4628,108 +4555,103 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-    </row>
-    <row r="23" spans="1:22" s="25" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A23" s="101" t="s">
+    </row>
+    <row r="23" spans="1:21" s="25" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A23" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="116" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="116" t="s">
+      <c r="E23" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="F23" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>55</v>
+      <c r="G23" s="27">
+        <v>44008</v>
       </c>
       <c r="H23" s="27">
-        <v>44008</v>
-      </c>
-      <c r="I23" s="27">
         <v>44013</v>
       </c>
-      <c r="J23" s="26">
+      <c r="I23" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K23" s="17" t="s">
+      <c r="J23" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="38">
+      <c r="K23" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="25" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="44" t="s">
+    <row r="24" spans="1:21" s="25" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A24" s="99"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="68" t="s">
-        <v>57</v>
+      <c r="F24" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="27">
+        <v>44008</v>
       </c>
       <c r="H24" s="27">
-        <v>44008</v>
-      </c>
-      <c r="I24" s="27">
         <v>44013</v>
       </c>
-      <c r="J24" s="26">
+      <c r="I24" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K24" s="17" t="s">
+      <c r="J24" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="38">
+      <c r="K24" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="52.5" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="95"/>
+    <row r="25" spans="1:21" ht="52.5" customHeight="1">
+      <c r="A25" s="99"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="84" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" s="84" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="73" t="s">
-        <v>58</v>
+      <c r="F25" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="52">
+        <v>44008</v>
       </c>
       <c r="H25" s="52">
-        <v>44008</v>
-      </c>
-      <c r="I25" s="52">
         <v>44013</v>
       </c>
-      <c r="J25" s="91">
+      <c r="I25" s="91">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="J25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="54">
+      <c r="K25" s="54">
         <v>1</v>
       </c>
+      <c r="L25" s="25"/>
       <c r="M25" s="25"/>
       <c r="N25" s="25"/>
       <c r="O25" s="25"/>
@@ -4739,66 +4661,62 @@
       <c r="S25" s="25"/>
       <c r="T25" s="25"/>
       <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-    </row>
-    <row r="26" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
-      <c r="A26" s="118" t="s">
+    </row>
+    <row r="26" spans="1:21" s="25" customFormat="1" ht="45.2" customHeight="1">
+      <c r="A26" s="121" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="E26" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="112" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="90" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="109">
+      <c r="G26" s="129">
         <v>44012</v>
       </c>
-      <c r="I26" s="109">
+      <c r="H26" s="129">
         <v>44013</v>
       </c>
-      <c r="J26" s="112">
+      <c r="I26" s="120">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="111" t="s">
+      <c r="J26" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="104">
+      <c r="K26" s="124">
         <v>1</v>
       </c>
-      <c r="M26" s="67"/>
-      <c r="N26" s="48"/>
-    </row>
-    <row r="27" spans="1:22" ht="30" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="92" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="48"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="48"/>
+    </row>
+    <row r="27" spans="1:21" ht="30" customHeight="1">
+      <c r="A27" s="122"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="108"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="130"/>
+      <c r="K27" s="124"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="25"/>
       <c r="O27" s="25"/>
       <c r="P27" s="25"/>
       <c r="Q27" s="25"/>
@@ -4806,88 +4724,83 @@
       <c r="S27" s="25"/>
       <c r="T27" s="25"/>
       <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-    </row>
-    <row r="28" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="101" t="s">
+    </row>
+    <row r="28" spans="1:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="110" t="s">
+      <c r="G28" s="128">
+        <v>44010</v>
+      </c>
+      <c r="H28" s="129">
+        <v>44013</v>
+      </c>
+      <c r="I28" s="108">
+        <f>H28-G28</f>
+        <v>3</v>
+      </c>
+      <c r="J28" s="130" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="124">
+        <v>1</v>
+      </c>
+      <c r="M28" s="48"/>
+    </row>
+    <row r="29" spans="1:21" s="25" customFormat="1" ht="30" customHeight="1">
+      <c r="A29" s="99"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="90" t="s">
+      <c r="E29" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="131"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="124"/>
+      <c r="M29" s="48"/>
+    </row>
+    <row r="30" spans="1:21" ht="30" customHeight="1">
+      <c r="A30" s="100"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="G28" s="97" t="s">
+      <c r="E30" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="108">
-        <v>44010</v>
-      </c>
-      <c r="I28" s="109">
-        <v>44013</v>
-      </c>
-      <c r="J28" s="110">
-        <f>I28-H28</f>
-        <v>3</v>
-      </c>
-      <c r="K28" s="111" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="104">
-        <v>1</v>
-      </c>
-      <c r="N28" s="48"/>
-    </row>
-    <row r="29" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="104"/>
-      <c r="N29" s="48"/>
-    </row>
-    <row r="30" spans="1:22" ht="30" customHeight="1">
-      <c r="A30" s="103"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
-      <c r="E30" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" s="72" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="25"/>
-      <c r="N30" s="48"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="130"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="25"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="25"/>
@@ -4895,200 +4808,192 @@
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-    </row>
-    <row r="31" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="101" t="s">
+    </row>
+    <row r="31" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="E31" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F31" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="G31" s="45">
+        <v>44019</v>
+      </c>
+      <c r="H31" s="45">
+        <v>44022</v>
+      </c>
+      <c r="I31" s="44">
+        <f>H31-G31</f>
+        <v>3</v>
+      </c>
+      <c r="J31" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A32" s="99"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="E32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="G32" s="76">
+        <v>44019</v>
+      </c>
+      <c r="H32" s="76">
+        <v>44022</v>
+      </c>
+      <c r="I32" s="44">
+        <v>3</v>
+      </c>
+      <c r="J32" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="69" t="s">
+      <c r="E33" s="87" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="45">
+      <c r="G33" s="45">
         <v>44019</v>
       </c>
-      <c r="I31" s="45">
+      <c r="H33" s="45">
         <v>44022</v>
       </c>
-      <c r="J31" s="44">
-        <f>I31-H31</f>
+      <c r="I33" s="44">
+        <f>H33-G33</f>
         <v>3</v>
       </c>
-      <c r="K31" s="46" t="s">
+      <c r="J33" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="38">
+      <c r="K33" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="44" t="s">
+    <row r="34" spans="1:21" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A34" s="99"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="F32" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="69" t="s">
+      <c r="E34" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="76">
+      <c r="G34" s="45">
         <v>44019</v>
       </c>
-      <c r="I32" s="76">
+      <c r="H34" s="45">
         <v>44022</v>
       </c>
-      <c r="J32" s="44">
+      <c r="I34" s="44">
+        <f>H34-G34</f>
         <v>3</v>
       </c>
-      <c r="K32" s="46" t="s">
+      <c r="J34" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L32" s="38">
+      <c r="K34" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="44" t="s">
+    <row r="35" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A35" s="99"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="F33" s="87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="66" t="s">
+      <c r="E35" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H33" s="45">
+      <c r="G35" s="45">
         <v>44019</v>
       </c>
-      <c r="I33" s="45">
+      <c r="H35" s="45">
         <v>44022</v>
       </c>
-      <c r="J33" s="44">
-        <f>I33-H33</f>
+      <c r="I35" s="44">
+        <f>H35-G35</f>
         <v>3</v>
       </c>
-      <c r="K33" s="46" t="s">
+      <c r="J35" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L33" s="38">
+      <c r="K35" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="44" t="s">
+    <row r="36" spans="1:21" ht="33" customHeight="1">
+      <c r="A36" s="100"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" s="69" t="s">
+      <c r="E36" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="H34" s="45">
+      <c r="G36" s="45">
         <v>44019</v>
       </c>
-      <c r="I34" s="45">
+      <c r="H36" s="45">
         <v>44022</v>
       </c>
-      <c r="J34" s="44">
-        <f>I34-H34</f>
+      <c r="I36" s="44">
+        <f>H36-G36</f>
         <v>3</v>
       </c>
-      <c r="K34" s="46" t="s">
+      <c r="J36" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L34" s="38">
+      <c r="K36" s="47">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G35" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="H35" s="45">
-        <v>44019</v>
-      </c>
-      <c r="I35" s="45">
-        <v>44022</v>
-      </c>
-      <c r="J35" s="44">
-        <f>I35-H35</f>
-        <v>3</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L35" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="33" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="75" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36" s="45">
-        <v>44019</v>
-      </c>
-      <c r="I36" s="45">
-        <v>44022</v>
-      </c>
-      <c r="J36" s="44">
-        <f>I36-H36</f>
-        <v>3</v>
-      </c>
-      <c r="K36" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L36" s="47">
-        <v>1</v>
-      </c>
+      <c r="L36" s="25"/>
       <c r="M36" s="25"/>
       <c r="N36" s="25"/>
       <c r="O36" s="25"/>
@@ -5098,74 +5003,70 @@
       <c r="S36" s="25"/>
       <c r="T36" s="25"/>
       <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-    </row>
-    <row r="37" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+    </row>
+    <row r="37" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
       <c r="A37" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="G37" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="44" t="s">
+      <c r="H37" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="E37" s="44" t="s">
+      <c r="I37" s="26">
+        <v>2</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K37" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="30.6" customHeight="1">
+      <c r="A38" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="G37" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="H37" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="I37" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="J37" s="26">
-        <v>2</v>
-      </c>
-      <c r="K37" s="17" t="s">
+      <c r="B38" s="132"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="27">
+        <v>43837</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="26">
+        <v>10</v>
+      </c>
+      <c r="J38" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L37" s="38">
+      <c r="K38" s="38">
+        <f>AVERAGE(K44:K46)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="30.6" customHeight="1">
-      <c r="A38" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="27">
-        <v>43837</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="J38" s="26">
-        <v>10</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L38" s="38">
-        <f>AVERAGE(L44:L46)</f>
-        <v>1</v>
-      </c>
-      <c r="M38" s="25"/>
-      <c r="N38" s="48"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
@@ -5173,209 +5074,201 @@
       <c r="S38" s="25"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-    </row>
-    <row r="39" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A39" s="94" t="s">
+    </row>
+    <row r="39" spans="1:21" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A39" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94" t="s">
+      <c r="G39" s="27">
+        <v>43868</v>
+      </c>
+      <c r="H39" s="27">
+        <v>43897</v>
+      </c>
+      <c r="I39" s="26">
+        <v>1</v>
+      </c>
+      <c r="J39" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="38">
+        <v>1</v>
+      </c>
+      <c r="M39" s="48"/>
+    </row>
+    <row r="40" spans="1:21" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E39" s="63" t="s">
+      <c r="E40" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="44" t="s">
+      <c r="G40" s="27">
+        <v>43868</v>
+      </c>
+      <c r="H40" s="27">
+        <v>43897</v>
+      </c>
+      <c r="I40" s="26">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="38">
+        <v>1</v>
+      </c>
+      <c r="M40" s="48"/>
+    </row>
+    <row r="41" spans="1:21" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="69" t="s">
+      <c r="E41" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="27">
+      <c r="G41" s="27">
         <v>43868</v>
       </c>
-      <c r="I39" s="27">
+      <c r="H41" s="27">
         <v>43897</v>
       </c>
-      <c r="J39" s="26">
+      <c r="I41" s="26">
         <v>1</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="J41" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="38">
+      <c r="K41" s="38">
         <v>1</v>
       </c>
-      <c r="N39" s="48"/>
-    </row>
-    <row r="40" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="49" t="s">
+      <c r="M41" s="48"/>
+    </row>
+    <row r="42" spans="1:21" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="G40" s="69" t="s">
+      <c r="E42" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F42" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="H40" s="27">
+      <c r="G42" s="27">
         <v>43868</v>
       </c>
-      <c r="I40" s="27">
+      <c r="H42" s="27">
         <v>43897</v>
       </c>
-      <c r="J40" s="26">
+      <c r="I42" s="26">
         <v>1</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="J42" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="38">
+      <c r="K42" s="38">
         <v>1</v>
       </c>
-      <c r="N40" s="48"/>
-    </row>
-    <row r="41" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="49" t="s">
+      <c r="M42" s="48"/>
+    </row>
+    <row r="43" spans="1:21" s="25" customFormat="1" ht="30.6" customHeight="1">
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="F41" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" s="68" t="s">
+      <c r="E43" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="H41" s="27">
+      <c r="G43" s="27">
         <v>43868</v>
       </c>
-      <c r="I41" s="27">
+      <c r="H43" s="27">
         <v>43897</v>
       </c>
-      <c r="J41" s="26">
+      <c r="I43" s="26">
         <v>1</v>
       </c>
-      <c r="K41" s="17" t="s">
+      <c r="J43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L41" s="38">
+      <c r="K43" s="38">
         <v>1</v>
       </c>
-      <c r="N41" s="48"/>
-    </row>
-    <row r="42" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="63" t="s">
+      <c r="M43" s="48"/>
+    </row>
+    <row r="44" spans="1:21" ht="49.5" customHeight="1">
+      <c r="A44" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="G42" s="68" t="s">
+      <c r="B44" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="H42" s="27">
-        <v>43868</v>
-      </c>
-      <c r="I42" s="27">
-        <v>43897</v>
-      </c>
-      <c r="J42" s="26">
+      <c r="C44" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F44" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="G44" s="27">
+        <v>44021</v>
+      </c>
+      <c r="H44" s="27">
+        <v>44024</v>
+      </c>
+      <c r="I44" s="26">
+        <f>H44-G44</f>
+        <v>3</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="38">
         <v>1</v>
       </c>
-      <c r="K42" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L42" s="38">
-        <v>1</v>
-      </c>
-      <c r="N42" s="48"/>
-    </row>
-    <row r="43" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="H43" s="27">
-        <v>43868</v>
-      </c>
-      <c r="I43" s="27">
-        <v>43897</v>
-      </c>
-      <c r="J43" s="26">
-        <v>1</v>
-      </c>
-      <c r="K43" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="38">
-        <v>1</v>
-      </c>
-      <c r="N43" s="48"/>
-    </row>
-    <row r="44" spans="1:22" ht="49.5" customHeight="1">
-      <c r="A44" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F44" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G44" s="74" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="27">
-        <v>44021</v>
-      </c>
-      <c r="I44" s="27">
-        <v>44024</v>
-      </c>
-      <c r="J44" s="26">
-        <f>I44-H44</f>
-        <v>3</v>
-      </c>
-      <c r="K44" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="38">
-        <v>1</v>
-      </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="48"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="25"/>
       <c r="O44" s="25"/>
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
@@ -5383,77 +5276,73 @@
       <c r="S44" s="25"/>
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-    </row>
-    <row r="45" spans="1:22" s="25" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A45" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="94" t="s">
+    </row>
+    <row r="45" spans="1:21" s="25" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A45" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="123" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="101" t="s">
+      <c r="C45" s="98" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="43" t="s">
-        <v>115</v>
+      <c r="D45" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>111</v>
       </c>
       <c r="F45" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="88" t="s">
         <v>27</v>
+      </c>
+      <c r="G45" s="45">
+        <v>44024</v>
       </c>
       <c r="H45" s="45">
         <v>44024</v>
       </c>
-      <c r="I45" s="45">
-        <v>44024</v>
-      </c>
-      <c r="J45" s="26">
+      <c r="I45" s="26">
         <v>1</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="J45" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L45" s="38">
+      <c r="K45" s="38">
         <v>1</v>
       </c>
-      <c r="N45" s="48"/>
-    </row>
-    <row r="46" spans="1:22" ht="46.5" customHeight="1">
-      <c r="A46" s="103"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="90" t="s">
-        <v>117</v>
+      <c r="M45" s="48"/>
+    </row>
+    <row r="46" spans="1:21" ht="46.5" customHeight="1">
+      <c r="A46" s="100"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>111</v>
       </c>
       <c r="F46" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="88" t="s">
         <v>27</v>
       </c>
+      <c r="G46" s="45">
+        <v>44027</v>
+      </c>
       <c r="H46" s="45">
-        <v>44027</v>
-      </c>
-      <c r="I46" s="45">
         <v>44029</v>
       </c>
-      <c r="J46" s="44">
-        <f>I46-H46</f>
+      <c r="I46" s="44">
+        <f>H46-G46</f>
         <v>2</v>
       </c>
-      <c r="K46" s="46" t="s">
+      <c r="J46" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="L46" s="47">
+      <c r="K46" s="47">
         <v>1</v>
       </c>
+      <c r="L46" s="25"/>
       <c r="M46" s="25"/>
       <c r="N46" s="25"/>
       <c r="O46" s="25"/>
@@ -5463,23 +5352,22 @@
       <c r="S46" s="25"/>
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-    </row>
-    <row r="47" spans="1:22" ht="30.75" customHeight="1">
-      <c r="A47" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
-      <c r="L47" s="38"/>
+    </row>
+    <row r="47" spans="1:21" ht="30.75" customHeight="1">
+      <c r="A47" s="97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="25"/>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
       <c r="O47" s="25"/>
@@ -5489,100 +5377,95 @@
       <c r="S47" s="25"/>
       <c r="T47" s="25"/>
       <c r="U47" s="25"/>
-      <c r="V47" s="25"/>
-    </row>
-    <row r="48" spans="1:22" s="25" customFormat="1" ht="30.75" customHeight="1">
+    </row>
+    <row r="48" spans="1:21" s="25" customFormat="1" ht="30.75" customHeight="1">
       <c r="A48" s="24" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
       <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
+      <c r="G48" s="27">
+        <v>44029</v>
+      </c>
       <c r="H48" s="27">
-        <v>44029</v>
-      </c>
-      <c r="I48" s="27">
         <v>44050</v>
       </c>
-      <c r="J48" s="26">
-        <f t="shared" ref="J48:J54" si="1">I48-H48</f>
+      <c r="I48" s="26">
+        <f t="shared" ref="I48:I54" si="1">H48-G48</f>
         <v>21</v>
       </c>
-      <c r="K48" s="28"/>
-      <c r="L48" s="39">
-        <f>AVERAGE(L49,L57)</f>
+      <c r="J48" s="28"/>
+      <c r="K48" s="39">
+        <f>AVERAGE(K49,K57)</f>
         <v>0.41026785714285718</v>
       </c>
     </row>
-    <row r="49" spans="1:22" s="25" customFormat="1" ht="27" customHeight="1">
+    <row r="49" spans="1:21" s="25" customFormat="1" ht="27" customHeight="1">
       <c r="A49" s="33" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
       <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
+      <c r="G49" s="27">
+        <v>44029</v>
+      </c>
       <c r="H49" s="27">
-        <v>44029</v>
-      </c>
-      <c r="I49" s="27">
         <v>44050</v>
       </c>
-      <c r="J49" s="26">
+      <c r="I49" s="26">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="K49" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="L49" s="40">
-        <f>AVERAGE(L50:L56)</f>
+      <c r="J49" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K49" s="40">
+        <f>AVERAGE(K50:K56)</f>
         <v>0.36428571428571432</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A50" s="126" t="s">
-        <v>122</v>
-      </c>
-      <c r="B50" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="123" t="s">
-        <v>123</v>
-      </c>
-      <c r="D50" s="128"/>
-      <c r="E50" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="G50" s="75" t="s">
-        <v>125</v>
+    <row r="50" spans="1:21" ht="38.25" customHeight="1">
+      <c r="A50" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="105"/>
+      <c r="D50" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="27">
+        <v>44029</v>
       </c>
       <c r="H50" s="27">
-        <v>44029</v>
-      </c>
-      <c r="I50" s="27">
         <v>44036</v>
       </c>
-      <c r="J50" s="26">
+      <c r="I50" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="J50" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L50" s="38">
+      <c r="K50" s="38">
         <v>1</v>
       </c>
+      <c r="L50" s="25"/>
       <c r="M50" s="25"/>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
@@ -5592,448 +5475,424 @@
       <c r="S50" s="25"/>
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
-      <c r="V50" s="25"/>
-    </row>
-    <row r="51" spans="1:22" s="25" customFormat="1" ht="45" customHeight="1">
-      <c r="A51" s="126"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="85" t="s">
-        <v>127</v>
+    </row>
+    <row r="51" spans="1:21" s="25" customFormat="1" ht="45" customHeight="1">
+      <c r="A51" s="116"/>
+      <c r="B51" s="108"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="85" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="27">
+        <v>44029</v>
       </c>
       <c r="H51" s="27">
-        <v>44029</v>
-      </c>
-      <c r="I51" s="27">
         <v>44036</v>
       </c>
-      <c r="J51" s="26">
+      <c r="I51" s="26">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="J51" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="38">
+      <c r="K51" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A52" s="130" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" s="110" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="116" t="s">
+    <row r="52" spans="1:21" s="25" customFormat="1" ht="32.25" customHeight="1">
+      <c r="A52" s="107" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="108"/>
+      <c r="D52" s="88" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="110"/>
-      <c r="E52" s="88" t="s">
-        <v>129</v>
-      </c>
-      <c r="F52" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="G52" s="86" t="s">
+      <c r="E52" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="86" t="s">
         <v>27</v>
       </c>
+      <c r="G52" s="50">
+        <v>44029</v>
+      </c>
       <c r="H52" s="50">
-        <v>44029</v>
-      </c>
-      <c r="I52" s="50">
         <v>44043</v>
       </c>
-      <c r="J52" s="90">
+      <c r="I52" s="90">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="K52" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="L52" s="51">
+      <c r="J52" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="K52" s="51">
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="25" customFormat="1" ht="57" customHeight="1">
-      <c r="A53" s="130"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="110"/>
-      <c r="E53" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="F53" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G53" s="85" t="s">
-        <v>131</v>
+    <row r="53" spans="1:21" s="25" customFormat="1" ht="57" customHeight="1">
+      <c r="A53" s="107"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="87" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53" s="77">
+        <v>44036</v>
       </c>
       <c r="H53" s="77">
-        <v>44036</v>
-      </c>
-      <c r="I53" s="77">
         <v>44043</v>
       </c>
-      <c r="J53" s="78">
+      <c r="I53" s="78">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K53" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="L53" s="80">
+      <c r="J53" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K53" s="80">
         <v>0.2</v>
       </c>
     </row>
-    <row r="54" spans="1:22" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A54" s="126" t="s">
-        <v>132</v>
-      </c>
-      <c r="B54" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="116" t="s">
-        <v>133</v>
-      </c>
-      <c r="D54" s="127"/>
-      <c r="E54" s="88" t="s">
-        <v>134</v>
-      </c>
-      <c r="F54" s="87" t="s">
+    <row r="54" spans="1:21" s="25" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A54" s="116" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="117"/>
+      <c r="D54" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="E54" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="G54" s="82" t="s">
-        <v>135</v>
+      <c r="F54" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="G54" s="50">
+        <v>44036</v>
       </c>
       <c r="H54" s="50">
-        <v>44036</v>
-      </c>
-      <c r="I54" s="50">
         <v>44043</v>
       </c>
-      <c r="J54" s="90">
+      <c r="I54" s="90">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K54" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="L54" s="51">
+      <c r="J54" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="K54" s="51">
         <v>0.2</v>
       </c>
     </row>
-    <row r="55" spans="1:22" s="25" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A55" s="126"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="127"/>
+    <row r="55" spans="1:21" s="25" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A55" s="116"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="90" t="s">
+        <v>129</v>
+      </c>
       <c r="E55" s="90" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="G55" s="74" t="s">
-        <v>137</v>
+      <c r="F55" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="G55" s="50">
+        <v>44036</v>
       </c>
       <c r="H55" s="50">
-        <v>44036</v>
-      </c>
-      <c r="I55" s="50">
         <v>44043</v>
       </c>
-      <c r="J55" s="90">
+      <c r="I55" s="90">
         <v>7</v>
       </c>
-      <c r="K55" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="L55" s="51">
+      <c r="J55" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="K55" s="51">
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
+    <row r="56" spans="1:21" s="25" customFormat="1" ht="32.25" customHeight="1">
       <c r="A56" s="21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E56" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F56" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="27">
+        <v>44039</v>
+      </c>
       <c r="H56" s="27">
-        <v>44039</v>
-      </c>
-      <c r="I56" s="27">
         <v>44050</v>
       </c>
-      <c r="J56" s="26">
-        <f>I56-H56</f>
+      <c r="I56" s="26">
+        <f>H56-G56</f>
         <v>11</v>
       </c>
-      <c r="K56" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L56" s="38">
+      <c r="J56" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K56" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="25" customFormat="1" ht="33.75" customHeight="1">
+    <row r="57" spans="1:21" s="25" customFormat="1" ht="33.75" customHeight="1">
       <c r="A57" s="34" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
       <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
+      <c r="G57" s="27">
+        <v>44029</v>
+      </c>
       <c r="H57" s="27">
+        <v>44050</v>
+      </c>
+      <c r="I57" s="26">
+        <f>H57-G57</f>
+        <v>21</v>
+      </c>
+      <c r="J57" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K57" s="40">
+        <f>AVERAGE(K58:K63,K65:K66)</f>
+        <v>0.45625000000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" s="25" customFormat="1" ht="42.75" customHeight="1">
+      <c r="A58" s="113" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="101"/>
+      <c r="D58" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="27">
         <v>44029</v>
       </c>
-      <c r="I57" s="27">
+      <c r="H58" s="27">
         <v>44050</v>
       </c>
-      <c r="J57" s="26">
-        <f>I57-H57</f>
+      <c r="I58" s="26">
+        <f>H58-G58</f>
         <v>21</v>
       </c>
-      <c r="K57" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="L57" s="40">
-        <f>AVERAGE(L58:L63,L65:L66)</f>
-        <v>0.45625000000000004</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="25" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A58" s="120" t="s">
+      <c r="J58" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="K58" s="38">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" s="25" customFormat="1" ht="45.75" customHeight="1">
+      <c r="A59" s="114"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="F59" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="G59" s="52">
+        <v>44030</v>
+      </c>
+      <c r="H59" s="52">
+        <v>44050</v>
+      </c>
+      <c r="I59" s="91">
+        <v>21</v>
+      </c>
+      <c r="J59" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K59" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" s="25" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A60" s="115"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60" s="84"/>
+      <c r="G60" s="52">
+        <v>44030</v>
+      </c>
+      <c r="H60" s="52">
+        <v>44050</v>
+      </c>
+      <c r="I60" s="91">
+        <v>21</v>
+      </c>
+      <c r="J60" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K60" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" s="25" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A61" s="107" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="105"/>
+      <c r="D61" s="61" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="C58" s="123" t="s">
+      <c r="E61" s="91" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="94"/>
-      <c r="E58" s="49" t="s">
+      <c r="F61" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="F58" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="G58" s="68" t="s">
+      <c r="G61" s="52">
+        <v>44032</v>
+      </c>
+      <c r="H61" s="52">
+        <v>44050</v>
+      </c>
+      <c r="I61" s="91">
+        <f>H61-G61</f>
+        <v>18</v>
+      </c>
+      <c r="J61" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K61" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" s="25" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A62" s="107"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="H58" s="27">
-        <v>44029</v>
-      </c>
-      <c r="I58" s="27">
+      <c r="E62" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="83" t="s">
+        <v>146</v>
+      </c>
+      <c r="G62" s="52">
+        <v>44032</v>
+      </c>
+      <c r="H62" s="52">
         <v>44050</v>
       </c>
-      <c r="J58" s="26">
-        <f>I58-H58</f>
-        <v>21</v>
-      </c>
-      <c r="K58" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="L58" s="38">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" s="25" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A59" s="121"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" s="92" t="s">
+      <c r="I62" s="91">
+        <f>H62-G62</f>
+        <v>18</v>
+      </c>
+      <c r="J62" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K62" s="38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" s="25" customFormat="1" ht="45.2" customHeight="1">
+      <c r="A63" s="107"/>
+      <c r="B63" s="110"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="61" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="52">
-        <v>44030</v>
-      </c>
-      <c r="I59" s="52">
+      <c r="E63" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="F63" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="G63" s="52">
+        <v>44032</v>
+      </c>
+      <c r="H63" s="52">
         <v>44050</v>
       </c>
-      <c r="J59" s="91">
-        <v>21</v>
-      </c>
-      <c r="K59" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="L59" s="38">
+      <c r="I63" s="91">
+        <f>H63-G63</f>
+        <v>18</v>
+      </c>
+      <c r="J63" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="K63" s="38">
         <v>0.7</v>
       </c>
     </row>
-    <row r="60" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A60" s="122"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="96"/>
-      <c r="E60" s="84" t="s">
-        <v>148</v>
-      </c>
-      <c r="F60" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="G60" s="84"/>
-      <c r="H60" s="52">
-        <v>44030</v>
-      </c>
-      <c r="I60" s="52">
-        <v>44050</v>
-      </c>
-      <c r="J60" s="91">
-        <v>21</v>
-      </c>
-      <c r="K60" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="L60" s="38">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A61" s="130" t="s">
-        <v>149</v>
-      </c>
-      <c r="B61" s="94" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="123" t="s">
+    <row r="64" spans="1:21" ht="22.5" customHeight="1">
+      <c r="A64" s="109" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="128"/>
-      <c r="E61" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="F61" s="91" t="s">
-        <v>152</v>
-      </c>
-      <c r="G61" s="70" t="s">
-        <v>153</v>
-      </c>
-      <c r="H61" s="52">
-        <v>44032</v>
-      </c>
-      <c r="I61" s="52">
-        <v>44050</v>
-      </c>
-      <c r="J61" s="91">
-        <f>I61-H61</f>
-        <v>18</v>
-      </c>
-      <c r="K61" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="L61" s="38">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A62" s="130"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="F62" s="91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="H62" s="52">
-        <v>44032</v>
-      </c>
-      <c r="I62" s="52">
-        <v>44050</v>
-      </c>
-      <c r="J62" s="91">
-        <f>I62-H62</f>
-        <v>18</v>
-      </c>
-      <c r="K62" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="L62" s="38">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
-      <c r="A63" s="130"/>
-      <c r="B63" s="133"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="F63" s="91" t="s">
-        <v>157</v>
-      </c>
-      <c r="G63" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="52">
-        <v>44032</v>
-      </c>
-      <c r="I63" s="52">
-        <v>44050</v>
-      </c>
-      <c r="J63" s="91">
-        <f>I63-H63</f>
-        <v>18</v>
-      </c>
-      <c r="K63" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="L63" s="38">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A64" s="132" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="132"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="57"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="109"/>
+      <c r="E64" s="109"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
+      <c r="J64" s="109"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="25"/>
       <c r="M64" s="25"/>
       <c r="N64" s="25"/>
       <c r="O64" s="25"/>
@@ -6043,11 +5902,10 @@
       <c r="S64" s="25"/>
       <c r="T64" s="25"/>
       <c r="U64" s="25"/>
-      <c r="V64" s="25"/>
-    </row>
-    <row r="65" spans="1:22" ht="44.25" customHeight="1">
+    </row>
+    <row r="65" spans="1:21" ht="44.25" customHeight="1">
       <c r="A65" s="59" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B65" s="92" t="s">
         <v>29</v>
@@ -6056,23 +5914,23 @@
       <c r="D65" s="92"/>
       <c r="E65" s="92"/>
       <c r="F65" s="92"/>
-      <c r="G65" s="92"/>
+      <c r="G65" s="55">
+        <v>44043</v>
+      </c>
       <c r="H65" s="55">
-        <v>44043</v>
-      </c>
-      <c r="I65" s="55">
         <v>44050</v>
       </c>
-      <c r="J65" s="92">
-        <f t="shared" ref="J65:J83" si="2">I65-H65</f>
+      <c r="I65" s="92">
+        <f t="shared" ref="I65:I83" si="2">H65-G65</f>
         <v>7</v>
       </c>
-      <c r="K65" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="L65" s="38">
+      <c r="J65" s="60" t="s">
+        <v>132</v>
+      </c>
+      <c r="K65" s="38">
         <v>0</v>
       </c>
+      <c r="L65" s="25"/>
       <c r="M65" s="25"/>
       <c r="N65" s="25"/>
       <c r="O65" s="25"/>
@@ -6082,11 +5940,10 @@
       <c r="S65" s="25"/>
       <c r="T65" s="25"/>
       <c r="U65" s="25"/>
-      <c r="V65" s="25"/>
-    </row>
-    <row r="66" spans="1:22" ht="25.5" customHeight="1">
+    </row>
+    <row r="66" spans="1:21" ht="25.5" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B66" s="26" t="s">
         <v>29</v>
@@ -6095,23 +5952,23 @@
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
       <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
+      <c r="G66" s="27">
+        <v>44050</v>
+      </c>
       <c r="H66" s="27">
-        <v>44050</v>
-      </c>
-      <c r="I66" s="27">
         <v>44057</v>
       </c>
-      <c r="J66" s="26">
+      <c r="I66" s="26">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="K66" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L66" s="38">
+      <c r="J66" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K66" s="38">
         <v>0</v>
       </c>
+      <c r="L66" s="25"/>
       <c r="M66" s="25"/>
       <c r="N66" s="25"/>
       <c r="O66" s="25"/>
@@ -6121,35 +5978,34 @@
       <c r="S66" s="25"/>
       <c r="T66" s="25"/>
       <c r="U66" s="25"/>
-      <c r="V66" s="25"/>
-    </row>
-    <row r="67" spans="1:22" ht="32.25" customHeight="1">
+    </row>
+    <row r="67" spans="1:21" ht="32.25" customHeight="1">
       <c r="A67" s="20" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B67" s="26"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
       <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
+      <c r="G67" s="27">
+        <v>44057</v>
+      </c>
       <c r="H67" s="27">
-        <v>44057</v>
-      </c>
-      <c r="I67" s="27">
         <v>44060</v>
       </c>
-      <c r="J67" s="26">
+      <c r="I67" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K67" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L67" s="39">
-        <f>AVERAGE(L71,L75,L78)</f>
+      <c r="J67" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" s="39">
+        <f>AVERAGE(K71,K75,K78)</f>
         <v>0</v>
       </c>
+      <c r="L67" s="25"/>
       <c r="M67" s="25"/>
       <c r="N67" s="25"/>
       <c r="O67" s="25"/>
@@ -6159,11 +6015,10 @@
       <c r="S67" s="25"/>
       <c r="T67" s="25"/>
       <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-    </row>
-    <row r="68" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+    </row>
+    <row r="68" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
       <c r="A68" s="21" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B68" s="26" t="s">
         <v>29</v>
@@ -6172,27 +6027,26 @@
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
       <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
+      <c r="G68" s="27">
+        <v>44057</v>
+      </c>
       <c r="H68" s="27">
-        <v>44057</v>
-      </c>
-      <c r="I68" s="27">
         <v>44058</v>
       </c>
-      <c r="J68" s="26">
+      <c r="I68" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K68" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L68" s="38">
+      <c r="J68" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K68" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:22" s="25" customFormat="1" ht="24.75" customHeight="1">
+    <row r="69" spans="1:21" s="25" customFormat="1" ht="24.75" customHeight="1">
       <c r="A69" s="21" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B69" s="26" t="s">
         <v>29</v>
@@ -6201,27 +6055,26 @@
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
       <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
+      <c r="G69" s="27">
+        <v>44057</v>
+      </c>
       <c r="H69" s="27">
-        <v>44057</v>
-      </c>
-      <c r="I69" s="27">
         <v>44058</v>
       </c>
-      <c r="J69" s="26">
+      <c r="I69" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K69" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L69" s="38">
+      <c r="J69" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:22" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="70" spans="1:21" s="25" customFormat="1" ht="20.25" customHeight="1">
       <c r="A70" s="21" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B70" s="26" t="s">
         <v>29</v>
@@ -6230,27 +6083,26 @@
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
       <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="36">
+      <c r="G70" s="36">
         <v>44058</v>
       </c>
-      <c r="I70" s="27">
+      <c r="H70" s="27">
         <v>44060</v>
       </c>
-      <c r="J70" s="26">
+      <c r="I70" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K70" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L70" s="38">
+      <c r="J70" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:22" s="25" customFormat="1" ht="24.75" customHeight="1">
+    <row r="71" spans="1:21" s="25" customFormat="1" ht="24.75" customHeight="1">
       <c r="A71" s="35" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B71" s="26" t="s">
         <v>29</v>
@@ -6259,28 +6111,27 @@
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
       <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
+      <c r="G71" s="27">
+        <v>44060</v>
+      </c>
       <c r="H71" s="27">
-        <v>44060</v>
-      </c>
-      <c r="I71" s="27">
         <v>44064</v>
       </c>
-      <c r="J71" s="26">
+      <c r="I71" s="26">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K71" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L71" s="40">
-        <f>AVERAGE(L72:L74)</f>
+      <c r="J71" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K71" s="40">
+        <f>AVERAGE(K72:K74)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:22" s="25" customFormat="1" ht="21.75" customHeight="1">
+    <row r="72" spans="1:21" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="A72" s="21" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B72" s="26" t="s">
         <v>29</v>
@@ -6289,27 +6140,26 @@
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
       <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
+      <c r="G72" s="27">
+        <v>44060</v>
+      </c>
       <c r="H72" s="27">
-        <v>44060</v>
-      </c>
-      <c r="I72" s="27">
         <v>44061</v>
       </c>
-      <c r="J72" s="26">
+      <c r="I72" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K72" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L72" s="38">
+      <c r="J72" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K72" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:22" s="25" customFormat="1" ht="18.75" customHeight="1">
+    <row r="73" spans="1:21" s="25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A73" s="21" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B73" s="26" t="s">
         <v>29</v>
@@ -6318,27 +6168,26 @@
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
       <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
+      <c r="G73" s="27">
+        <v>44060</v>
+      </c>
       <c r="H73" s="27">
-        <v>44060</v>
-      </c>
-      <c r="I73" s="27">
         <v>44062</v>
       </c>
-      <c r="J73" s="26">
+      <c r="I73" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K73" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L73" s="38">
+      <c r="J73" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:22" s="25" customFormat="1" ht="21.75" customHeight="1">
+    <row r="74" spans="1:21" s="25" customFormat="1" ht="21.75" customHeight="1">
       <c r="A74" s="21" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B74" s="26" t="s">
         <v>29</v>
@@ -6347,27 +6196,26 @@
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
       <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
+      <c r="G74" s="27">
+        <v>44060</v>
+      </c>
       <c r="H74" s="27">
-        <v>44060</v>
-      </c>
-      <c r="I74" s="27">
         <v>44064</v>
       </c>
-      <c r="J74" s="26">
+      <c r="I74" s="26">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K74" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L74" s="38">
+      <c r="J74" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="24" customHeight="1">
+    <row r="75" spans="1:21" ht="24" customHeight="1">
       <c r="A75" s="35" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B75" s="26" t="s">
         <v>21</v>
@@ -6376,24 +6224,24 @@
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
       <c r="F75" s="26"/>
-      <c r="G75" s="26"/>
+      <c r="G75" s="27">
+        <v>44064</v>
+      </c>
       <c r="H75" s="27">
-        <v>44064</v>
-      </c>
-      <c r="I75" s="27">
         <v>44066</v>
       </c>
-      <c r="J75" s="26">
+      <c r="I75" s="26">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K75" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L75" s="40">
-        <f>AVERAGE(L76:L77)</f>
+      <c r="J75" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K75" s="40">
+        <f>AVERAGE(K76:K77)</f>
         <v>0</v>
       </c>
+      <c r="L75" s="25"/>
       <c r="M75" s="25"/>
       <c r="N75" s="25"/>
       <c r="O75" s="25"/>
@@ -6403,11 +6251,10 @@
       <c r="S75" s="25"/>
       <c r="T75" s="25"/>
       <c r="U75" s="25"/>
-      <c r="V75" s="25"/>
-    </row>
-    <row r="76" spans="1:22" s="25" customFormat="1" ht="18.75" customHeight="1">
+    </row>
+    <row r="76" spans="1:21" s="25" customFormat="1" ht="18.75" customHeight="1">
       <c r="A76" s="21" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B76" s="26" t="s">
         <v>21</v>
@@ -6416,27 +6263,26 @@
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
       <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
+      <c r="G76" s="27">
+        <v>44064</v>
+      </c>
       <c r="H76" s="27">
-        <v>44064</v>
-      </c>
-      <c r="I76" s="27">
         <v>44065</v>
       </c>
-      <c r="J76" s="26">
+      <c r="I76" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K76" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L76" s="38">
+      <c r="J76" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K76" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="25" customFormat="1" ht="20.25" customHeight="1">
+    <row r="77" spans="1:21" s="25" customFormat="1" ht="20.25" customHeight="1">
       <c r="A77" s="21" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B77" s="26" t="s">
         <v>21</v>
@@ -6445,53 +6291,52 @@
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
       <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
+      <c r="G77" s="27">
+        <v>44065</v>
+      </c>
       <c r="H77" s="27">
-        <v>44065</v>
-      </c>
-      <c r="I77" s="27">
         <v>44066</v>
       </c>
-      <c r="J77" s="26">
+      <c r="I77" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K77" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L77" s="38">
+      <c r="J77" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K77" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="22.5" customHeight="1">
+    <row r="78" spans="1:21" ht="22.5" customHeight="1">
       <c r="A78" s="35" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
       <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
+      <c r="G78" s="27">
+        <v>44066</v>
+      </c>
       <c r="H78" s="27">
-        <v>44066</v>
-      </c>
-      <c r="I78" s="27">
         <v>44067</v>
       </c>
-      <c r="J78" s="26">
+      <c r="I78" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K78" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L78" s="40">
-        <f>AVERAGE(L79:L80)</f>
+      <c r="J78" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K78" s="40">
+        <f>AVERAGE(K79:K80)</f>
         <v>0</v>
       </c>
+      <c r="L78" s="25"/>
       <c r="M78" s="25"/>
       <c r="N78" s="25"/>
       <c r="O78" s="25"/>
@@ -6501,69 +6346,66 @@
       <c r="S78" s="25"/>
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
-      <c r="V78" s="25"/>
-    </row>
-    <row r="79" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+    </row>
+    <row r="79" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
       <c r="A79" s="22" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
       <c r="F79" s="26"/>
-      <c r="G79" s="26"/>
+      <c r="G79" s="27">
+        <v>44066</v>
+      </c>
       <c r="H79" s="27">
-        <v>44066</v>
-      </c>
-      <c r="I79" s="27">
         <v>44067</v>
       </c>
-      <c r="J79" s="26">
+      <c r="I79" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K79" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L79" s="41">
+      <c r="J79" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K79" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+    <row r="80" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
       <c r="A80" s="22" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
       <c r="F80" s="26"/>
-      <c r="G80" s="26"/>
+      <c r="G80" s="27">
+        <v>44066</v>
+      </c>
       <c r="H80" s="27">
-        <v>44066</v>
-      </c>
-      <c r="I80" s="27">
         <v>44067</v>
       </c>
-      <c r="J80" s="26">
+      <c r="I80" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K80" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L80" s="38">
+      <c r="J80" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K80" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="25.5" customHeight="1">
+    <row r="81" spans="1:21" ht="25.5" customHeight="1">
       <c r="A81" s="32" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B81" s="26" t="s">
         <v>5</v>
@@ -6572,24 +6414,24 @@
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
       <c r="F81" s="26"/>
-      <c r="G81" s="26"/>
+      <c r="G81" s="27">
+        <v>44067</v>
+      </c>
       <c r="H81" s="27">
-        <v>44067</v>
-      </c>
-      <c r="I81" s="27">
         <v>44071</v>
       </c>
-      <c r="J81" s="26">
+      <c r="I81" s="26">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K81" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L81" s="39">
-        <f>AVERAGE(L82:L83)</f>
+      <c r="J81" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K81" s="39">
+        <f>AVERAGE(K82:K83)</f>
         <v>0</v>
       </c>
+      <c r="L81" s="25"/>
       <c r="M81" s="25"/>
       <c r="N81" s="25"/>
       <c r="O81" s="25"/>
@@ -6599,11 +6441,10 @@
       <c r="S81" s="25"/>
       <c r="T81" s="25"/>
       <c r="U81" s="25"/>
-      <c r="V81" s="25"/>
-    </row>
-    <row r="82" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
+    </row>
+    <row r="82" spans="1:21" s="25" customFormat="1" ht="25.5" customHeight="1">
       <c r="A82" s="29" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B82" s="26" t="s">
         <v>5</v>
@@ -6612,27 +6453,26 @@
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
-      <c r="G82" s="26"/>
+      <c r="G82" s="27">
+        <v>44067</v>
+      </c>
       <c r="H82" s="27">
-        <v>44067</v>
-      </c>
-      <c r="I82" s="27">
         <v>44070</v>
       </c>
-      <c r="J82" s="26">
+      <c r="I82" s="26">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="K82" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L82" s="38">
+      <c r="J82" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K82" s="38">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="25.5" customHeight="1">
+    <row r="83" spans="1:21" ht="25.5" customHeight="1">
       <c r="A83" s="29" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B83" s="26" t="s">
         <v>5</v>
@@ -6641,23 +6481,23 @@
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
       <c r="F83" s="26"/>
-      <c r="G83" s="26"/>
+      <c r="G83" s="27">
+        <v>44070</v>
+      </c>
       <c r="H83" s="27">
-        <v>44070</v>
-      </c>
-      <c r="I83" s="27">
         <v>44071</v>
       </c>
-      <c r="J83" s="26">
+      <c r="I83" s="26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K83" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="L83" s="38">
+      <c r="J83" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K83" s="38">
         <v>0</v>
       </c>
+      <c r="L83" s="25"/>
       <c r="M83" s="25"/>
       <c r="N83" s="25"/>
       <c r="O83" s="25"/>
@@ -6667,23 +6507,22 @@
       <c r="S83" s="25"/>
       <c r="T83" s="25"/>
       <c r="U83" s="25"/>
-      <c r="V83" s="25"/>
-    </row>
-    <row r="84" spans="1:22" ht="25.5" customHeight="1">
-      <c r="A84" s="131" t="s">
-        <v>179</v>
-      </c>
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="131"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
-      <c r="J84" s="131"/>
-      <c r="K84" s="131"/>
-      <c r="L84" s="38"/>
+    </row>
+    <row r="84" spans="1:21" ht="25.5" customHeight="1">
+      <c r="A84" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="25"/>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
       <c r="O84" s="25"/>
@@ -6693,11 +6532,11 @@
       <c r="S84" s="25"/>
       <c r="T84" s="25"/>
       <c r="U84" s="25"/>
-      <c r="V84" s="25"/>
-    </row>
-    <row r="85" spans="1:22">
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
+      <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
       <c r="J85" s="25"/>
@@ -6712,11 +6551,11 @@
       <c r="S85" s="25"/>
       <c r="T85" s="25"/>
       <c r="U85" s="25"/>
-      <c r="V85" s="25"/>
-    </row>
-    <row r="86" spans="1:22">
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
+      <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
       <c r="J86" s="25"/>
@@ -6731,11 +6570,11 @@
       <c r="S86" s="25"/>
       <c r="T86" s="25"/>
       <c r="U86" s="25"/>
-      <c r="V86" s="25"/>
-    </row>
-    <row r="87" spans="1:22">
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
+      <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
       <c r="J87" s="25"/>
@@ -6750,11 +6589,11 @@
       <c r="S87" s="25"/>
       <c r="T87" s="25"/>
       <c r="U87" s="25"/>
-      <c r="V87" s="25"/>
-    </row>
-    <row r="88" spans="1:22">
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
+      <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
       <c r="J88" s="25"/>
@@ -6769,22 +6608,21 @@
       <c r="S88" s="25"/>
       <c r="T88" s="25"/>
       <c r="U88" s="25"/>
-      <c r="V88" s="25"/>
-    </row>
-    <row r="89" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="89" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1">
+      <c r="H89" s="31"/>
       <c r="I89" s="31"/>
       <c r="J89" s="31"/>
       <c r="K89" s="31"/>
-      <c r="L89" s="31"/>
-      <c r="N89" s="31" t="s">
-        <v>180</v>
-      </c>
+      <c r="M89" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="R89" s="31"/>
       <c r="S89" s="31"/>
       <c r="T89" s="31"/>
       <c r="U89" s="31"/>
-      <c r="V89" s="31"/>
-    </row>
-    <row r="90" spans="1:22" s="30" customFormat="1" ht="15.75" customHeight="1">
+    </row>
+    <row r="90" spans="1:21" s="30" customFormat="1" ht="15.75" customHeight="1">
       <c r="B90" s="31"/>
       <c r="C90" s="31"/>
       <c r="D90" s="31"/>
@@ -6794,17 +6632,17 @@
       <c r="H90" s="31"/>
       <c r="I90" s="31"/>
       <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="M90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="Q90" s="31"/>
       <c r="R90" s="31"/>
       <c r="S90" s="31"/>
       <c r="T90" s="31"/>
       <c r="U90" s="31"/>
-      <c r="V90" s="31"/>
-    </row>
-    <row r="91" spans="1:22">
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
+      <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
       <c r="J91" s="25"/>
@@ -6819,11 +6657,11 @@
       <c r="S91" s="25"/>
       <c r="T91" s="25"/>
       <c r="U91" s="25"/>
-      <c r="V91" s="25"/>
-    </row>
-    <row r="92" spans="1:22">
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
       <c r="J92" s="25"/>
@@ -6838,11 +6676,11 @@
       <c r="S92" s="25"/>
       <c r="T92" s="25"/>
       <c r="U92" s="25"/>
-      <c r="V92" s="25"/>
-    </row>
-    <row r="93" spans="1:22">
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
       <c r="J93" s="25"/>
@@ -6857,119 +6695,105 @@
       <c r="S93" s="25"/>
       <c r="T93" s="25"/>
       <c r="U93" s="25"/>
-      <c r="V93" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A47:K47"/>
+  <mergeCells count="61">
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="C13:C17"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A84:J84"/>
+    <mergeCell ref="A64:J64"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="A47:J47"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1"/>
-    <hyperlink ref="G21" r:id="rId2"/>
-    <hyperlink ref="G34" r:id="rId3"/>
-    <hyperlink ref="G23" r:id="rId4"/>
-    <hyperlink ref="G63" r:id="rId5"/>
-    <hyperlink ref="G12" r:id="rId6"/>
-    <hyperlink ref="G24" r:id="rId7"/>
-    <hyperlink ref="G39" r:id="rId8"/>
-    <hyperlink ref="G30" r:id="rId9"/>
-    <hyperlink ref="G33" r:id="rId10"/>
-    <hyperlink ref="G43" r:id="rId11"/>
-    <hyperlink ref="G25" r:id="rId12"/>
-    <hyperlink ref="G41" r:id="rId13"/>
-    <hyperlink ref="G44" r:id="rId14"/>
-    <hyperlink ref="G32" r:id="rId15"/>
-    <hyperlink ref="G40" r:id="rId16"/>
-    <hyperlink ref="G26:G27" r:id="rId17" display="https://github.com/antonyMontalvo/FaceSolutions/commit/8f0ec13380b96dbff2cf0f44e517515e6d8e935b"/>
-    <hyperlink ref="G58" r:id="rId18"/>
-    <hyperlink ref="G51" r:id="rId19"/>
-    <hyperlink ref="G36" r:id="rId20"/>
-    <hyperlink ref="G28:G29" r:id="rId21" display="https://github.com/antonyMontalvo/FaceSolutions/commit/b7f87017c045c76f3ed7353bf35a7680607f9adf"/>
-    <hyperlink ref="G42" r:id="rId22"/>
-    <hyperlink ref="G37" r:id="rId23"/>
-    <hyperlink ref="G50" r:id="rId24"/>
-    <hyperlink ref="G31" r:id="rId25"/>
-    <hyperlink ref="G55" r:id="rId26"/>
-    <hyperlink ref="G61" r:id="rId27"/>
-    <hyperlink ref="G19" r:id="rId28"/>
-    <hyperlink ref="G35" r:id="rId29"/>
-    <hyperlink ref="G54" r:id="rId30"/>
-    <hyperlink ref="G53" r:id="rId31"/>
-    <hyperlink ref="G62" r:id="rId32"/>
-    <hyperlink ref="G59" r:id="rId33"/>
+    <hyperlink ref="F20" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F21" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F34" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F23" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F63" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F39" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F33" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F43" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F44" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F32" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F40" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="F26:F27" r:id="rId17" display="https://github.com/antonyMontalvo/FaceSolutions/commit/8f0ec13380b96dbff2cf0f44e517515e6d8e935b" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F58" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="F51" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="F28:F29" r:id="rId21" display="https://github.com/antonyMontalvo/FaceSolutions/commit/b7f87017c045c76f3ed7353bf35a7680607f9adf" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F42" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="F37" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F50" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="F31" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="F55" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="F61" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="F19" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="F35" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="F54" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F53" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="F62" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="F59" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId34"/>
@@ -6978,7 +6802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6997,7 +6821,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -7007,27 +6831,27 @@
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="6" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.15" customHeight="1">
       <c r="A4" s="13" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B4" s="8">
         <v>1</v>
@@ -7047,7 +6871,7 @@
     </row>
     <row r="5" spans="1:6" ht="43.15" customHeight="1">
       <c r="A5" s="13" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B5" s="8">
         <v>1</v>
@@ -7067,7 +6891,7 @@
     </row>
     <row r="6" spans="1:6" ht="43.15" customHeight="1">
       <c r="A6" s="13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B6" s="8">
         <v>0.3</v>
@@ -7087,7 +6911,7 @@
     </row>
     <row r="7" spans="1:6" ht="43.15" customHeight="1">
       <c r="A7" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B7" s="8">
         <v>0.15</v>
@@ -7107,7 +6931,7 @@
     </row>
     <row r="8" spans="1:6" ht="43.15" customHeight="1">
       <c r="A8" s="13" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B8" s="8">
         <v>0.15</v>
@@ -7127,7 +6951,7 @@
     </row>
     <row r="9" spans="1:6" ht="43.15" customHeight="1">
       <c r="A9" s="13" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="B9" s="8">
         <v>0.15</v>
@@ -7147,7 +6971,7 @@
     </row>
     <row r="10" spans="1:6" ht="43.15" customHeight="1">
       <c r="A10" s="13" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B10" s="8">
         <v>0.15</v>
@@ -7167,7 +6991,7 @@
     </row>
     <row r="11" spans="1:6" ht="43.15" customHeight="1">
       <c r="A11" s="13" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B11" s="8">
         <v>0.15</v>
@@ -7187,7 +7011,7 @@
     </row>
     <row r="12" spans="1:6" ht="43.15" customHeight="1">
       <c r="A12" s="13" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -7207,7 +7031,7 @@
     </row>
     <row r="13" spans="1:6" ht="43.15" customHeight="1">
       <c r="A13" s="16" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B13" s="18"/>
       <c r="C13" s="19">

--- a/lineas_base/FRSIAAATR/LB_Planificacion/FRSIAAATR_C.xlsx
+++ b/lineas_base/FRSIAAATR/LB_Planificacion/FRSIAAATR_C.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Plan de proyecto y Gantt" sheetId="1" r:id="rId1"/>
     <sheet name="Línea base de costo" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1332,6 +1332,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1341,6 +1362,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1352,123 +1469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2167,7 +2167,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000018-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2177,7 +2177,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000018-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000019-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2187,7 +2187,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000019-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2197,7 +2197,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001A-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2207,7 +2207,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001B-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2217,7 +2217,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001C-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2227,7 +2227,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001D-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2237,7 +2237,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001E-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000001F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2247,7 +2247,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000001F-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000020-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2257,7 +2257,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000020-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000021-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2267,7 +2267,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000021-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000022-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2277,7 +2277,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000022-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000023-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2287,7 +2287,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000023-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000024-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2297,7 +2297,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000024-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000025-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2307,7 +2307,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000025-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000026-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2317,7 +2317,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000026-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000027-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2327,7 +2327,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000027-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000028-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2337,7 +2337,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000028-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000029-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2347,7 +2347,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000029-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000002A-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2357,7 +2357,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002A-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000002B-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2367,7 +2367,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002B-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000002C-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2377,7 +2377,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002C-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000002D-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2387,7 +2387,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002D-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000002E-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2397,7 +2397,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002E-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{0000002F-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2407,7 +2407,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000002F-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000030-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2417,7 +2417,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000030-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000031-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2427,7 +2427,7 @@
             <c:bubble3D val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000031-BC27-42F0-95D7-3BD26C201260}"/>
+                <c16:uniqueId val="{00000032-BC27-42F0-95D7-3BD26C201260}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -2435,11 +2435,6 @@
             <c:idx val="79"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000032-BC27-42F0-95D7-3BD26C201260}"/>
-              </c:ext>
-            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="80"/>
@@ -2835,11 +2830,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="277669520"/>
-        <c:axId val="277667888"/>
+        <c:axId val="-1037065632"/>
+        <c:axId val="-1037064000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="277669520"/>
+        <c:axId val="-1037065632"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2882,7 +2877,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277667888"/>
+        <c:crossAx val="-1037064000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2890,7 +2885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277667888"/>
+        <c:axId val="-1037064000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44078"/>
@@ -2943,7 +2938,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277669520"/>
+        <c:crossAx val="-1037065632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -3558,7 +3553,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3903,8 +3898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3927,21 +3922,21 @@
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
@@ -3955,15 +3950,15 @@
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="95" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="138"/>
-      <c r="H3" s="138"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
@@ -3983,15 +3978,15 @@
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="138"/>
-      <c r="D4" s="138"/>
-      <c r="E4" s="138"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="138"/>
-      <c r="H4" s="138"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
@@ -4011,15 +4006,15 @@
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="139"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
@@ -4120,7 +4115,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -4269,7 +4264,7 @@
       <c r="C13" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="105"/>
+      <c r="D13" s="130"/>
       <c r="E13" s="26"/>
       <c r="F13" s="26" t="s">
         <v>26</v>
@@ -4305,16 +4300,16 @@
       <c r="V13" s="25"/>
     </row>
     <row r="14" spans="1:22" s="25" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A14" s="114" t="s">
+      <c r="A14" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="110" t="s">
+      <c r="B14" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="106"/>
+      <c r="D14" s="131"/>
       <c r="E14" s="90" t="s">
         <v>31</v>
       </c>
@@ -4342,10 +4337,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" s="25" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A15" s="115"/>
-      <c r="B15" s="112"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="106"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="131"/>
       <c r="E15" s="90" t="s">
         <v>31</v>
       </c>
@@ -4382,7 +4377,7 @@
       <c r="C16" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="106"/>
+      <c r="D16" s="131"/>
       <c r="E16" s="43" t="s">
         <v>34</v>
       </c>
@@ -4418,7 +4413,7 @@
       <c r="C17" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="107"/>
+      <c r="D17" s="132"/>
       <c r="E17" s="44" t="s">
         <v>36</v>
       </c>
@@ -4449,12 +4444,12 @@
       <c r="A18" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
+      <c r="B18" s="137"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="139"/>
       <c r="H18" s="27">
         <v>44008</v>
       </c>
@@ -4484,16 +4479,16 @@
       <c r="V18" s="25"/>
     </row>
     <row r="19" spans="1:22" s="25" customFormat="1" ht="36" customHeight="1">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="D19" s="101" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="89" t="s">
@@ -4522,10 +4517,10 @@
       </c>
     </row>
     <row r="20" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="124"/>
-      <c r="D20" s="95"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="102"/>
       <c r="E20" s="61" t="s">
         <v>44</v>
       </c>
@@ -4552,10 +4547,10 @@
       </c>
     </row>
     <row r="21" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
-      <c r="A21" s="103"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="96"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="49" t="s">
         <v>46</v>
       </c>
@@ -4631,16 +4626,16 @@
       <c r="V22" s="25"/>
     </row>
     <row r="23" spans="1:22" s="25" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="98" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="B23" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="101" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="61" t="s">
@@ -4670,10 +4665,10 @@
       </c>
     </row>
     <row r="24" spans="1:22" s="25" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A24" s="102"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="95"/>
+      <c r="A24" s="99"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="102"/>
       <c r="E24" s="89" t="s">
         <v>56</v>
       </c>
@@ -4701,10 +4696,10 @@
       </c>
     </row>
     <row r="25" spans="1:22" ht="52.5" customHeight="1">
-      <c r="A25" s="102"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="95"/>
+      <c r="A25" s="99"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="102"/>
       <c r="E25" s="84" t="s">
         <v>36</v>
       </c>
@@ -4742,61 +4737,61 @@
       <c r="V25" s="25"/>
     </row>
     <row r="26" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
-      <c r="A26" s="118" t="s">
+      <c r="A26" s="126" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="110" t="s">
+      <c r="C26" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="124" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="110" t="s">
+      <c r="F26" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="97" t="s">
+      <c r="G26" s="136" t="s">
         <v>63</v>
       </c>
-      <c r="H26" s="109">
+      <c r="H26" s="134">
         <v>44012</v>
       </c>
-      <c r="I26" s="109">
+      <c r="I26" s="134">
         <v>44013</v>
       </c>
-      <c r="J26" s="112">
+      <c r="J26" s="124">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="K26" s="111" t="s">
+      <c r="K26" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="104">
+      <c r="L26" s="129">
         <v>1</v>
       </c>
       <c r="M26" s="67"/>
       <c r="N26" s="48"/>
     </row>
     <row r="27" spans="1:22" ht="30" customHeight="1">
-      <c r="A27" s="119"/>
-      <c r="B27" s="110"/>
-      <c r="C27" s="110"/>
-      <c r="D27" s="113"/>
+      <c r="A27" s="127"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="128"/>
       <c r="E27" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="110"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="111"/>
-      <c r="L27" s="104"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="129"/>
       <c r="M27" s="67"/>
       <c r="N27" s="48"/>
       <c r="O27" s="25"/>
@@ -4809,16 +4804,16 @@
       <c r="V27" s="25"/>
     </row>
     <row r="28" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A28" s="101" t="s">
+      <c r="A28" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="110" t="s">
+      <c r="C28" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="D28" s="110" t="s">
+      <c r="D28" s="111" t="s">
         <v>66</v>
       </c>
       <c r="E28" s="90" t="s">
@@ -4827,51 +4822,51 @@
       <c r="F28" s="92" t="s">
         <v>60</v>
       </c>
-      <c r="G28" s="97" t="s">
+      <c r="G28" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="108">
+      <c r="H28" s="133">
         <v>44010</v>
       </c>
-      <c r="I28" s="109">
+      <c r="I28" s="134">
         <v>44013</v>
       </c>
-      <c r="J28" s="110">
+      <c r="J28" s="111">
         <f>I28-H28</f>
         <v>3</v>
       </c>
-      <c r="K28" s="111" t="s">
+      <c r="K28" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="L28" s="104">
+      <c r="L28" s="129">
         <v>1</v>
       </c>
       <c r="N28" s="48"/>
     </row>
     <row r="29" spans="1:22" s="25" customFormat="1" ht="30" customHeight="1">
-      <c r="A29" s="102"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
+      <c r="A29" s="99"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
       <c r="E29" s="92" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="G29" s="97"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="104"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="134"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="129"/>
       <c r="N29" s="48"/>
     </row>
     <row r="30" spans="1:22" ht="30" customHeight="1">
-      <c r="A30" s="103"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="110"/>
-      <c r="D30" s="110"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="26" t="s">
         <v>70</v>
       </c>
@@ -4881,11 +4876,11 @@
       <c r="G30" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="111"/>
-      <c r="L30" s="104"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="129"/>
       <c r="M30" s="25"/>
       <c r="N30" s="48"/>
       <c r="O30" s="25"/>
@@ -4898,16 +4893,16 @@
       <c r="V30" s="25"/>
     </row>
     <row r="31" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="123" t="s">
+      <c r="C31" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="94" t="s">
+      <c r="D31" s="101" t="s">
         <v>75</v>
       </c>
       <c r="E31" s="56" t="s">
@@ -4937,10 +4932,10 @@
       </c>
     </row>
     <row r="32" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A32" s="102"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="95"/>
+      <c r="A32" s="99"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="102"/>
       <c r="E32" s="44" t="s">
         <v>78</v>
       </c>
@@ -4967,10 +4962,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A33" s="102"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="95"/>
+      <c r="A33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="102"/>
       <c r="E33" s="44" t="s">
         <v>80</v>
       </c>
@@ -4998,10 +4993,10 @@
       </c>
     </row>
     <row r="34" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A34" s="102"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="95"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="102"/>
       <c r="E34" s="44" t="s">
         <v>82</v>
       </c>
@@ -5029,10 +5024,10 @@
       </c>
     </row>
     <row r="35" spans="1:22" s="25" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="102"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="95"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="102"/>
       <c r="E35" s="44" t="s">
         <v>84</v>
       </c>
@@ -5060,10 +5055,10 @@
       </c>
     </row>
     <row r="36" spans="1:22" ht="33" customHeight="1">
-      <c r="A36" s="103"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="96"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="106"/>
+      <c r="D36" s="103"/>
       <c r="E36" s="44" t="s">
         <v>86</v>
       </c>
@@ -5142,12 +5137,12 @@
       <c r="A38" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="98"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="100"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="139"/>
       <c r="H38" s="27">
         <v>43837</v>
       </c>
@@ -5176,14 +5171,14 @@
       <c r="V38" s="25"/>
     </row>
     <row r="39" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94" t="s">
+      <c r="C39" s="101"/>
+      <c r="D39" s="101" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="63" t="s">
@@ -5213,10 +5208,10 @@
       <c r="N39" s="48"/>
     </row>
     <row r="40" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="102"/>
+      <c r="C40" s="102"/>
+      <c r="D40" s="102"/>
       <c r="E40" s="49" t="s">
         <v>100</v>
       </c>
@@ -5244,10 +5239,10 @@
       <c r="N40" s="48"/>
     </row>
     <row r="41" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="49" t="s">
         <v>102</v>
       </c>
@@ -5275,10 +5270,10 @@
       <c r="N41" s="48"/>
     </row>
     <row r="42" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
       <c r="E42" s="63" t="s">
         <v>104</v>
       </c>
@@ -5306,10 +5301,10 @@
       <c r="N42" s="48"/>
     </row>
     <row r="43" spans="1:22" s="25" customFormat="1" ht="30.6" customHeight="1">
-      <c r="A43" s="96"/>
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
+      <c r="A43" s="103"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
       <c r="E43" s="43" t="s">
         <v>106</v>
       </c>
@@ -5386,16 +5381,16 @@
       <c r="V44" s="25"/>
     </row>
     <row r="45" spans="1:22" s="25" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A45" s="101" t="s">
+      <c r="A45" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="94" t="s">
+      <c r="B45" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="123" t="s">
+      <c r="C45" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="101" t="s">
+      <c r="D45" s="98" t="s">
         <v>27</v>
       </c>
       <c r="E45" s="43" t="s">
@@ -5425,10 +5420,10 @@
       <c r="N45" s="48"/>
     </row>
     <row r="46" spans="1:22" ht="46.5" customHeight="1">
-      <c r="A46" s="103"/>
-      <c r="B46" s="96"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="103"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="100"/>
       <c r="E46" s="90" t="s">
         <v>117</v>
       </c>
@@ -5466,19 +5461,19 @@
       <c r="V46" s="25"/>
     </row>
     <row r="47" spans="1:22" ht="30.75" customHeight="1">
-      <c r="A47" s="131" t="s">
+      <c r="A47" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="131"/>
-      <c r="C47" s="131"/>
-      <c r="D47" s="131"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="131"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
       <c r="L47" s="38"/>
       <c r="M47" s="25"/>
       <c r="N47" s="25"/>
@@ -5548,16 +5543,16 @@
       </c>
     </row>
     <row r="50" spans="1:22" ht="38.25" customHeight="1">
-      <c r="A50" s="126" t="s">
+      <c r="A50" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="110" t="s">
+      <c r="B50" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C50" s="123" t="s">
+      <c r="C50" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="128"/>
+      <c r="D50" s="108"/>
       <c r="E50" s="44" t="s">
         <v>124</v>
       </c>
@@ -5595,10 +5590,10 @@
       <c r="V50" s="25"/>
     </row>
     <row r="51" spans="1:22" s="25" customFormat="1" ht="45" customHeight="1">
-      <c r="A51" s="126"/>
-      <c r="B51" s="110"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="129"/>
+      <c r="A51" s="120"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="106"/>
+      <c r="D51" s="109"/>
       <c r="E51" s="49" t="s">
         <v>126</v>
       </c>
@@ -5626,16 +5621,16 @@
       </c>
     </row>
     <row r="52" spans="1:22" s="25" customFormat="1" ht="32.25" customHeight="1">
-      <c r="A52" s="130" t="s">
+      <c r="A52" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="110" t="s">
+      <c r="B52" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="116" t="s">
+      <c r="C52" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="D52" s="110"/>
+      <c r="D52" s="111"/>
       <c r="E52" s="88" t="s">
         <v>129</v>
       </c>
@@ -5663,10 +5658,10 @@
       </c>
     </row>
     <row r="53" spans="1:22" s="25" customFormat="1" ht="57" customHeight="1">
-      <c r="A53" s="130"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="110"/>
+      <c r="A53" s="110"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="111"/>
       <c r="E53" s="88" t="s">
         <v>130</v>
       </c>
@@ -5694,16 +5689,16 @@
       </c>
     </row>
     <row r="54" spans="1:22" s="25" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A54" s="126" t="s">
+      <c r="A54" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="B54" s="127" t="s">
+      <c r="B54" s="121" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="116" t="s">
+      <c r="C54" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="127"/>
+      <c r="D54" s="121"/>
       <c r="E54" s="88" t="s">
         <v>134</v>
       </c>
@@ -5731,10 +5726,10 @@
       </c>
     </row>
     <row r="55" spans="1:22" s="25" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A55" s="126"/>
-      <c r="B55" s="127"/>
-      <c r="C55" s="116"/>
-      <c r="D55" s="127"/>
+      <c r="A55" s="120"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="121"/>
       <c r="E55" s="90" t="s">
         <v>136</v>
       </c>
@@ -5826,16 +5821,16 @@
       </c>
     </row>
     <row r="58" spans="1:22" s="25" customFormat="1" ht="42.75" customHeight="1">
-      <c r="A58" s="120" t="s">
+      <c r="A58" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="94" t="s">
+      <c r="B58" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="C58" s="123" t="s">
+      <c r="C58" s="104" t="s">
         <v>143</v>
       </c>
-      <c r="D58" s="94"/>
+      <c r="D58" s="101"/>
       <c r="E58" s="49" t="s">
         <v>144</v>
       </c>
@@ -5863,10 +5858,10 @@
       </c>
     </row>
     <row r="59" spans="1:22" s="25" customFormat="1" ht="45.75" customHeight="1">
-      <c r="A59" s="121"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="124"/>
-      <c r="D59" s="95"/>
+      <c r="A59" s="118"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="102"/>
       <c r="E59" s="84" t="s">
         <v>146</v>
       </c>
@@ -5893,10 +5888,10 @@
       </c>
     </row>
     <row r="60" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A60" s="122"/>
-      <c r="B60" s="96"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="96"/>
+      <c r="A60" s="119"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="103"/>
       <c r="E60" s="84" t="s">
         <v>148</v>
       </c>
@@ -5921,16 +5916,16 @@
       </c>
     </row>
     <row r="61" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A61" s="130" t="s">
+      <c r="A61" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="B61" s="94" t="s">
+      <c r="B61" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="123" t="s">
+      <c r="C61" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="D61" s="128"/>
+      <c r="D61" s="108"/>
       <c r="E61" s="61" t="s">
         <v>151</v>
       </c>
@@ -5958,10 +5953,10 @@
       </c>
     </row>
     <row r="62" spans="1:22" s="25" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A62" s="130"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="135"/>
+      <c r="A62" s="110"/>
+      <c r="B62" s="102"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="115"/>
       <c r="E62" s="61" t="s">
         <v>154</v>
       </c>
@@ -5989,10 +5984,10 @@
       </c>
     </row>
     <row r="63" spans="1:22" s="25" customFormat="1" ht="45.2" customHeight="1">
-      <c r="A63" s="130"/>
-      <c r="B63" s="133"/>
-      <c r="C63" s="134"/>
-      <c r="D63" s="136"/>
+      <c r="A63" s="110"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="114"/>
+      <c r="D63" s="116"/>
       <c r="E63" s="61" t="s">
         <v>156</v>
       </c>
@@ -6020,19 +6015,19 @@
       </c>
     </row>
     <row r="64" spans="1:22" ht="22.5" customHeight="1">
-      <c r="A64" s="132" t="s">
+      <c r="A64" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="132"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
+      <c r="B64" s="112"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="112"/>
       <c r="L64" s="57"/>
       <c r="M64" s="25"/>
       <c r="N64" s="25"/>
@@ -6670,19 +6665,19 @@
       <c r="V83" s="25"/>
     </row>
     <row r="84" spans="1:22" ht="25.5" customHeight="1">
-      <c r="A84" s="131" t="s">
+      <c r="A84" s="97" t="s">
         <v>179</v>
       </c>
-      <c r="B84" s="131"/>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="131"/>
-      <c r="H84" s="131"/>
-      <c r="I84" s="131"/>
-      <c r="J84" s="131"/>
-      <c r="K84" s="131"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
       <c r="L84" s="38"/>
       <c r="M84" s="25"/>
       <c r="N84" s="25"/>
@@ -6861,6 +6856,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="I28:I30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="K28:K30"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A64:K64"/>
+    <mergeCell ref="A61:A63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
     <mergeCell ref="B2:N2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
@@ -6877,64 +6930,6 @@
     <mergeCell ref="A31:A36"/>
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A64:K64"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="A58:A60"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="I28:I30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="K28:K30"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="A28:A30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1"/>
